--- a/03_DB・機能設計書/SD3B後期2班データベース設計書.xlsx
+++ b/03_DB・機能設計書/SD3B後期2班データベース設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maron\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00E0A19-671D-49F2-83DC-F9FF55B28610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCE59BD-1E79-48C2-B5BD-3CF9355633E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>No</t>
   </si>
@@ -602,6 +602,13 @@
     <t>テトリス データベース設計書</t>
     <rPh sb="11" eb="14">
       <t>セッケイショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>谷川</t>
+    <rPh sb="0" eb="2">
+      <t>タニガワ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2201,12 +2208,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2224,9 +2234,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -2266,6 +2273,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>31749</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>901700</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>63994</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5439E93-0E57-5317-B1E9-CD033749DFC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6057899"/>
+          <a:ext cx="2813050" cy="2267445"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2560,8 +2616,8 @@
   </sheetPr>
   <dimension ref="A1:FT34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AC25" sqref="AC25:AE25"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AH24" sqref="AH24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -3222,7 +3278,9 @@
       <c r="Z9" s="151"/>
       <c r="AA9" s="152"/>
       <c r="AB9" s="153"/>
-      <c r="AC9" s="151"/>
+      <c r="AC9" s="151" t="s">
+        <v>91</v>
+      </c>
       <c r="AD9" s="152"/>
       <c r="AE9" s="153"/>
       <c r="AF9" s="12"/>
@@ -3735,7 +3793,7 @@
       <c r="AA24" s="125"/>
       <c r="AB24" s="126"/>
       <c r="AC24" s="124" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AD24" s="125"/>
       <c r="AE24" s="126"/>
@@ -4161,8 +4219,8 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11"/>
@@ -4638,6 +4696,7 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4653,7 +4712,7 @@
   </sheetPr>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -5458,7 +5517,7 @@
       <c r="K2" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="213">
+      <c r="L2" s="205">
         <v>45189</v>
       </c>
       <c r="M2" s="206"/>
@@ -5483,7 +5542,7 @@
       <c r="K3" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="205"/>
+      <c r="L3" s="207"/>
       <c r="M3" s="206"/>
     </row>
     <row r="4" spans="1:13" ht="17.25" customHeight="1">
@@ -5504,7 +5563,7 @@
       <c r="K4" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="205" t="s">
+      <c r="L4" s="207" t="s">
         <v>59</v>
       </c>
       <c r="M4" s="206"/>
@@ -5568,14 +5627,14 @@
     <row r="9" spans="1:13" ht="21.75" customHeight="1">
       <c r="A9" s="97"/>
       <c r="F9" s="98"/>
-      <c r="G9" s="207" t="s">
+      <c r="G9" s="208" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="208"/>
-      <c r="I9" s="208"/>
-      <c r="J9" s="208"/>
-      <c r="K9" s="208"/>
-      <c r="L9" s="209"/>
+      <c r="H9" s="209"/>
+      <c r="I9" s="209"/>
+      <c r="J9" s="209"/>
+      <c r="K9" s="209"/>
+      <c r="L9" s="210"/>
       <c r="M9" s="98"/>
     </row>
     <row r="10" spans="1:13" ht="21.75" customHeight="1">
@@ -5597,7 +5656,7 @@
     </row>
     <row r="11" spans="1:13" ht="22.5" customHeight="1">
       <c r="A11" s="97"/>
-      <c r="B11" s="210" t="s">
+      <c r="B11" s="211" t="s">
         <v>53</v>
       </c>
       <c r="C11" s="202" t="s">
@@ -5618,7 +5677,7 @@
     </row>
     <row r="12" spans="1:13" ht="22.5" customHeight="1">
       <c r="A12" s="97"/>
-      <c r="B12" s="211"/>
+      <c r="B12" s="212"/>
       <c r="C12" s="202" t="s">
         <v>86</v>
       </c>
@@ -5637,7 +5696,7 @@
     </row>
     <row r="13" spans="1:13" ht="22.5" customHeight="1">
       <c r="A13" s="97"/>
-      <c r="B13" s="211"/>
+      <c r="B13" s="212"/>
       <c r="C13" s="202" t="s">
         <v>88</v>
       </c>
@@ -5656,7 +5715,7 @@
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1">
       <c r="A14" s="97"/>
-      <c r="B14" s="211"/>
+      <c r="B14" s="212"/>
       <c r="C14" s="202"/>
       <c r="D14" s="203"/>
       <c r="E14" s="203"/>
@@ -5671,7 +5730,7 @@
     </row>
     <row r="15" spans="1:13" ht="22.5" customHeight="1">
       <c r="A15" s="97"/>
-      <c r="B15" s="211"/>
+      <c r="B15" s="212"/>
       <c r="C15" s="202"/>
       <c r="D15" s="203"/>
       <c r="E15" s="203"/>
@@ -5686,7 +5745,7 @@
     </row>
     <row r="16" spans="1:13" ht="22.5" customHeight="1">
       <c r="A16" s="97"/>
-      <c r="B16" s="211"/>
+      <c r="B16" s="212"/>
       <c r="C16" s="202"/>
       <c r="D16" s="203"/>
       <c r="E16" s="203"/>
@@ -5701,7 +5760,7 @@
     </row>
     <row r="17" spans="1:13" ht="22.5" customHeight="1">
       <c r="A17" s="97"/>
-      <c r="B17" s="211"/>
+      <c r="B17" s="212"/>
       <c r="C17" s="202"/>
       <c r="D17" s="203"/>
       <c r="E17" s="203"/>
@@ -5716,7 +5775,7 @@
     </row>
     <row r="18" spans="1:13" ht="22.5" customHeight="1">
       <c r="A18" s="97"/>
-      <c r="B18" s="211"/>
+      <c r="B18" s="212"/>
       <c r="C18" s="202"/>
       <c r="D18" s="203"/>
       <c r="E18" s="203"/>
@@ -5731,7 +5790,7 @@
     </row>
     <row r="19" spans="1:13" ht="22.5" customHeight="1">
       <c r="A19" s="97"/>
-      <c r="B19" s="211"/>
+      <c r="B19" s="212"/>
       <c r="C19" s="202"/>
       <c r="D19" s="203"/>
       <c r="E19" s="203"/>
@@ -5746,7 +5805,7 @@
     </row>
     <row r="20" spans="1:13" ht="22.5" customHeight="1">
       <c r="A20" s="97"/>
-      <c r="B20" s="211"/>
+      <c r="B20" s="212"/>
       <c r="C20" s="202"/>
       <c r="D20" s="203"/>
       <c r="E20" s="203"/>
@@ -5761,7 +5820,7 @@
     </row>
     <row r="21" spans="1:13" ht="22.5" customHeight="1">
       <c r="A21" s="97"/>
-      <c r="B21" s="211"/>
+      <c r="B21" s="212"/>
       <c r="C21" s="202"/>
       <c r="D21" s="203"/>
       <c r="E21" s="203"/>
@@ -5776,7 +5835,7 @@
     </row>
     <row r="22" spans="1:13" ht="22.5" customHeight="1">
       <c r="A22" s="97"/>
-      <c r="B22" s="211"/>
+      <c r="B22" s="212"/>
       <c r="C22" s="202"/>
       <c r="D22" s="203"/>
       <c r="E22" s="203"/>
@@ -5791,7 +5850,7 @@
     </row>
     <row r="23" spans="1:13" ht="22.5" customHeight="1">
       <c r="A23" s="97"/>
-      <c r="B23" s="211"/>
+      <c r="B23" s="212"/>
       <c r="C23" s="202"/>
       <c r="D23" s="203"/>
       <c r="E23" s="203"/>
@@ -5806,7 +5865,7 @@
     </row>
     <row r="24" spans="1:13" ht="22.5" customHeight="1">
       <c r="A24" s="97"/>
-      <c r="B24" s="211"/>
+      <c r="B24" s="212"/>
       <c r="C24" s="202"/>
       <c r="D24" s="203"/>
       <c r="E24" s="203"/>
@@ -5821,7 +5880,7 @@
     </row>
     <row r="25" spans="1:13" ht="22.5" customHeight="1">
       <c r="A25" s="97"/>
-      <c r="B25" s="211"/>
+      <c r="B25" s="212"/>
       <c r="C25" s="202"/>
       <c r="D25" s="203"/>
       <c r="E25" s="203"/>
@@ -5836,7 +5895,7 @@
     </row>
     <row r="26" spans="1:13" ht="22.5" customHeight="1">
       <c r="A26" s="97"/>
-      <c r="B26" s="211"/>
+      <c r="B26" s="212"/>
       <c r="C26" s="202"/>
       <c r="D26" s="203"/>
       <c r="E26" s="203"/>
@@ -5851,7 +5910,7 @@
     </row>
     <row r="27" spans="1:13" ht="22.5" customHeight="1">
       <c r="A27" s="97"/>
-      <c r="B27" s="211"/>
+      <c r="B27" s="212"/>
       <c r="C27" s="202"/>
       <c r="D27" s="203"/>
       <c r="E27" s="203"/>
@@ -5866,7 +5925,7 @@
     </row>
     <row r="28" spans="1:13" ht="22.5" customHeight="1">
       <c r="A28" s="97"/>
-      <c r="B28" s="211"/>
+      <c r="B28" s="212"/>
       <c r="C28" s="202"/>
       <c r="D28" s="203"/>
       <c r="E28" s="203"/>
@@ -5881,7 +5940,7 @@
     </row>
     <row r="29" spans="1:13" ht="22.5" customHeight="1">
       <c r="A29" s="97"/>
-      <c r="B29" s="211"/>
+      <c r="B29" s="212"/>
       <c r="C29" s="202"/>
       <c r="D29" s="203"/>
       <c r="E29" s="203"/>
@@ -5896,7 +5955,7 @@
     </row>
     <row r="30" spans="1:13" ht="22.5" customHeight="1">
       <c r="A30" s="97"/>
-      <c r="B30" s="211"/>
+      <c r="B30" s="212"/>
       <c r="C30" s="202"/>
       <c r="D30" s="203"/>
       <c r="E30" s="203"/>
@@ -5911,7 +5970,7 @@
     </row>
     <row r="31" spans="1:13" ht="22.5" customHeight="1">
       <c r="A31" s="97"/>
-      <c r="B31" s="211"/>
+      <c r="B31" s="212"/>
       <c r="C31" s="202"/>
       <c r="D31" s="203"/>
       <c r="E31" s="203"/>
@@ -5926,7 +5985,7 @@
     </row>
     <row r="32" spans="1:13" ht="23.25" customHeight="1">
       <c r="A32" s="97"/>
-      <c r="B32" s="211"/>
+      <c r="B32" s="212"/>
       <c r="C32" s="202"/>
       <c r="D32" s="203"/>
       <c r="E32" s="203"/>
@@ -5941,7 +6000,7 @@
     </row>
     <row r="33" spans="1:13" ht="23.25" customHeight="1">
       <c r="A33" s="97"/>
-      <c r="B33" s="211"/>
+      <c r="B33" s="212"/>
       <c r="C33" s="202"/>
       <c r="D33" s="203"/>
       <c r="E33" s="203"/>
@@ -5956,7 +6015,7 @@
     </row>
     <row r="34" spans="1:13" ht="23.25" customHeight="1">
       <c r="A34" s="97"/>
-      <c r="B34" s="212"/>
+      <c r="B34" s="213"/>
       <c r="C34" s="202"/>
       <c r="D34" s="203"/>
       <c r="E34" s="203"/>

--- a/03_DB・機能設計書/SD3B後期2班データベース設計書.xlsx
+++ b/03_DB・機能設計書/SD3B後期2班データベース設計書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maron\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCE59BD-1E79-48C2-B5BD-3CF9355633E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1291947-3D4E-44EF-8D50-4F37C8BD4864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1965,13 +1965,94 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1992,86 +2073,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -2091,10 +2097,76 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2103,6 +2175,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2112,9 +2190,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2124,80 +2199,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2225,15 +2234,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -3050,21 +3050,21 @@
       <c r="R3" s="12"/>
       <c r="S3" s="12"/>
       <c r="T3" s="12"/>
-      <c r="U3" s="124" t="s">
+      <c r="U3" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="126"/>
-      <c r="W3" s="150">
+      <c r="V3" s="141"/>
+      <c r="W3" s="142">
         <v>45189</v>
       </c>
-      <c r="X3" s="125"/>
-      <c r="Y3" s="125"/>
-      <c r="Z3" s="125"/>
-      <c r="AA3" s="125"/>
-      <c r="AB3" s="125"/>
-      <c r="AC3" s="125"/>
-      <c r="AD3" s="125"/>
-      <c r="AE3" s="126"/>
+      <c r="X3" s="143"/>
+      <c r="Y3" s="143"/>
+      <c r="Z3" s="143"/>
+      <c r="AA3" s="143"/>
+      <c r="AB3" s="143"/>
+      <c r="AC3" s="143"/>
+      <c r="AD3" s="143"/>
+      <c r="AE3" s="141"/>
       <c r="AF3" s="12"/>
     </row>
     <row r="4" spans="1:176" ht="15.75" customHeight="1">
@@ -3176,20 +3176,20 @@
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
       <c r="E7" s="36"/>
-      <c r="F7" s="135" t="s">
+      <c r="F7" s="125" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="136"/>
-      <c r="J7" s="136"/>
-      <c r="K7" s="136"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="136"/>
-      <c r="O7" s="136"/>
-      <c r="P7" s="136"/>
-      <c r="Q7" s="137"/>
+      <c r="G7" s="126"/>
+      <c r="H7" s="126"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="126"/>
+      <c r="M7" s="126"/>
+      <c r="N7" s="126"/>
+      <c r="O7" s="126"/>
+      <c r="P7" s="126"/>
+      <c r="Q7" s="127"/>
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
       <c r="T7" s="12"/>
@@ -3207,82 +3207,82 @@
     </row>
     <row r="8" spans="1:176" ht="15.75" customHeight="1">
       <c r="A8" s="12"/>
-      <c r="B8" s="138" t="s">
+      <c r="B8" s="128" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="139"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="140"/>
-      <c r="F8" s="144" t="s">
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="134" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="145"/>
-      <c r="H8" s="145"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="145"/>
-      <c r="K8" s="145"/>
-      <c r="L8" s="145"/>
-      <c r="M8" s="145"/>
-      <c r="N8" s="145"/>
-      <c r="O8" s="145"/>
-      <c r="P8" s="145"/>
-      <c r="Q8" s="146"/>
+      <c r="G8" s="135"/>
+      <c r="H8" s="135"/>
+      <c r="I8" s="135"/>
+      <c r="J8" s="135"/>
+      <c r="K8" s="135"/>
+      <c r="L8" s="135"/>
+      <c r="M8" s="135"/>
+      <c r="N8" s="135"/>
+      <c r="O8" s="135"/>
+      <c r="P8" s="135"/>
+      <c r="Q8" s="136"/>
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
-      <c r="W8" s="134" t="s">
+      <c r="W8" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="X8" s="134"/>
-      <c r="Y8" s="134"/>
-      <c r="Z8" s="134" t="s">
+      <c r="X8" s="124"/>
+      <c r="Y8" s="124"/>
+      <c r="Z8" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="AA8" s="134"/>
-      <c r="AB8" s="134"/>
-      <c r="AC8" s="134" t="s">
+      <c r="AA8" s="124"/>
+      <c r="AB8" s="124"/>
+      <c r="AC8" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="AD8" s="134"/>
-      <c r="AE8" s="134"/>
+      <c r="AD8" s="124"/>
+      <c r="AE8" s="124"/>
       <c r="AF8" s="12"/>
     </row>
     <row r="9" spans="1:176" ht="15.75" customHeight="1">
       <c r="A9" s="12"/>
-      <c r="B9" s="141"/>
-      <c r="C9" s="142"/>
-      <c r="D9" s="142"/>
-      <c r="E9" s="143"/>
-      <c r="F9" s="147"/>
-      <c r="G9" s="148"/>
-      <c r="H9" s="148"/>
-      <c r="I9" s="148"/>
-      <c r="J9" s="148"/>
-      <c r="K9" s="148"/>
-      <c r="L9" s="148"/>
-      <c r="M9" s="148"/>
-      <c r="N9" s="148"/>
-      <c r="O9" s="148"/>
-      <c r="P9" s="148"/>
-      <c r="Q9" s="149"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="138"/>
+      <c r="H9" s="138"/>
+      <c r="I9" s="138"/>
+      <c r="J9" s="138"/>
+      <c r="K9" s="138"/>
+      <c r="L9" s="138"/>
+      <c r="M9" s="138"/>
+      <c r="N9" s="138"/>
+      <c r="O9" s="138"/>
+      <c r="P9" s="138"/>
+      <c r="Q9" s="139"/>
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
-      <c r="W9" s="151"/>
-      <c r="X9" s="152"/>
-      <c r="Y9" s="153"/>
-      <c r="Z9" s="151"/>
-      <c r="AA9" s="152"/>
-      <c r="AB9" s="153"/>
-      <c r="AC9" s="151" t="s">
+      <c r="W9" s="144"/>
+      <c r="X9" s="145"/>
+      <c r="Y9" s="146"/>
+      <c r="Z9" s="144"/>
+      <c r="AA9" s="145"/>
+      <c r="AB9" s="146"/>
+      <c r="AC9" s="144" t="s">
         <v>91</v>
       </c>
-      <c r="AD9" s="152"/>
-      <c r="AE9" s="153"/>
+      <c r="AD9" s="145"/>
+      <c r="AE9" s="146"/>
       <c r="AF9" s="12"/>
     </row>
     <row r="10" spans="1:176" ht="15.75" customHeight="1">
@@ -3308,15 +3308,15 @@
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
-      <c r="W10" s="154"/>
-      <c r="X10" s="155"/>
-      <c r="Y10" s="156"/>
-      <c r="Z10" s="154"/>
-      <c r="AA10" s="155"/>
-      <c r="AB10" s="156"/>
-      <c r="AC10" s="154"/>
-      <c r="AD10" s="155"/>
-      <c r="AE10" s="156"/>
+      <c r="W10" s="147"/>
+      <c r="X10" s="148"/>
+      <c r="Y10" s="149"/>
+      <c r="Z10" s="147"/>
+      <c r="AA10" s="148"/>
+      <c r="AB10" s="149"/>
+      <c r="AC10" s="147"/>
+      <c r="AD10" s="148"/>
+      <c r="AE10" s="149"/>
       <c r="AF10" s="12"/>
     </row>
     <row r="11" spans="1:176" ht="15.75" customHeight="1">
@@ -3342,15 +3342,15 @@
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
-      <c r="W11" s="154"/>
-      <c r="X11" s="155"/>
-      <c r="Y11" s="156"/>
-      <c r="Z11" s="154"/>
-      <c r="AA11" s="155"/>
-      <c r="AB11" s="156"/>
-      <c r="AC11" s="154"/>
-      <c r="AD11" s="155"/>
-      <c r="AE11" s="156"/>
+      <c r="W11" s="147"/>
+      <c r="X11" s="148"/>
+      <c r="Y11" s="149"/>
+      <c r="Z11" s="147"/>
+      <c r="AA11" s="148"/>
+      <c r="AB11" s="149"/>
+      <c r="AC11" s="147"/>
+      <c r="AD11" s="148"/>
+      <c r="AE11" s="149"/>
       <c r="AF11" s="12"/>
     </row>
     <row r="12" spans="1:176" ht="15.75" customHeight="1">
@@ -3376,15 +3376,15 @@
       <c r="T12" s="16"/>
       <c r="U12" s="16"/>
       <c r="V12" s="16"/>
-      <c r="W12" s="157"/>
-      <c r="X12" s="158"/>
-      <c r="Y12" s="159"/>
-      <c r="Z12" s="157"/>
-      <c r="AA12" s="158"/>
-      <c r="AB12" s="159"/>
-      <c r="AC12" s="157"/>
-      <c r="AD12" s="158"/>
-      <c r="AE12" s="159"/>
+      <c r="W12" s="150"/>
+      <c r="X12" s="151"/>
+      <c r="Y12" s="152"/>
+      <c r="Z12" s="150"/>
+      <c r="AA12" s="151"/>
+      <c r="AB12" s="152"/>
+      <c r="AC12" s="150"/>
+      <c r="AD12" s="151"/>
+      <c r="AE12" s="152"/>
       <c r="AF12" s="12"/>
     </row>
     <row r="13" spans="1:176" ht="15.75" customHeight="1">
@@ -3479,106 +3479,106 @@
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
       <c r="A16" s="12"/>
-      <c r="B16" s="133" t="s">
+      <c r="B16" s="153" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="133"/>
-      <c r="D16" s="133"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="133"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="133"/>
-      <c r="I16" s="133"/>
-      <c r="J16" s="133"/>
-      <c r="K16" s="133"/>
-      <c r="L16" s="133"/>
-      <c r="M16" s="133"/>
-      <c r="N16" s="133"/>
-      <c r="O16" s="133"/>
-      <c r="P16" s="133"/>
-      <c r="Q16" s="133"/>
-      <c r="R16" s="133"/>
-      <c r="S16" s="133"/>
-      <c r="T16" s="133"/>
-      <c r="U16" s="133"/>
-      <c r="V16" s="133"/>
-      <c r="W16" s="133"/>
-      <c r="X16" s="133"/>
-      <c r="Y16" s="133"/>
-      <c r="Z16" s="133"/>
-      <c r="AA16" s="133"/>
-      <c r="AB16" s="133"/>
-      <c r="AC16" s="133"/>
-      <c r="AD16" s="133"/>
-      <c r="AE16" s="133"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="153"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="153"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="153"/>
+      <c r="L16" s="153"/>
+      <c r="M16" s="153"/>
+      <c r="N16" s="153"/>
+      <c r="O16" s="153"/>
+      <c r="P16" s="153"/>
+      <c r="Q16" s="153"/>
+      <c r="R16" s="153"/>
+      <c r="S16" s="153"/>
+      <c r="T16" s="153"/>
+      <c r="U16" s="153"/>
+      <c r="V16" s="153"/>
+      <c r="W16" s="153"/>
+      <c r="X16" s="153"/>
+      <c r="Y16" s="153"/>
+      <c r="Z16" s="153"/>
+      <c r="AA16" s="153"/>
+      <c r="AB16" s="153"/>
+      <c r="AC16" s="153"/>
+      <c r="AD16" s="153"/>
+      <c r="AE16" s="153"/>
       <c r="AF16" s="12"/>
     </row>
     <row r="17" spans="1:32" ht="15" customHeight="1">
       <c r="A17" s="12"/>
-      <c r="B17" s="133"/>
-      <c r="C17" s="133"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="133"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="133"/>
-      <c r="H17" s="133"/>
-      <c r="I17" s="133"/>
-      <c r="J17" s="133"/>
-      <c r="K17" s="133"/>
-      <c r="L17" s="133"/>
-      <c r="M17" s="133"/>
-      <c r="N17" s="133"/>
-      <c r="O17" s="133"/>
-      <c r="P17" s="133"/>
-      <c r="Q17" s="133"/>
-      <c r="R17" s="133"/>
-      <c r="S17" s="133"/>
-      <c r="T17" s="133"/>
-      <c r="U17" s="133"/>
-      <c r="V17" s="133"/>
-      <c r="W17" s="133"/>
-      <c r="X17" s="133"/>
-      <c r="Y17" s="133"/>
-      <c r="Z17" s="133"/>
-      <c r="AA17" s="133"/>
-      <c r="AB17" s="133"/>
-      <c r="AC17" s="133"/>
-      <c r="AD17" s="133"/>
-      <c r="AE17" s="133"/>
+      <c r="B17" s="153"/>
+      <c r="C17" s="153"/>
+      <c r="D17" s="153"/>
+      <c r="E17" s="153"/>
+      <c r="F17" s="153"/>
+      <c r="G17" s="153"/>
+      <c r="H17" s="153"/>
+      <c r="I17" s="153"/>
+      <c r="J17" s="153"/>
+      <c r="K17" s="153"/>
+      <c r="L17" s="153"/>
+      <c r="M17" s="153"/>
+      <c r="N17" s="153"/>
+      <c r="O17" s="153"/>
+      <c r="P17" s="153"/>
+      <c r="Q17" s="153"/>
+      <c r="R17" s="153"/>
+      <c r="S17" s="153"/>
+      <c r="T17" s="153"/>
+      <c r="U17" s="153"/>
+      <c r="V17" s="153"/>
+      <c r="W17" s="153"/>
+      <c r="X17" s="153"/>
+      <c r="Y17" s="153"/>
+      <c r="Z17" s="153"/>
+      <c r="AA17" s="153"/>
+      <c r="AB17" s="153"/>
+      <c r="AC17" s="153"/>
+      <c r="AD17" s="153"/>
+      <c r="AE17" s="153"/>
       <c r="AF17" s="12"/>
     </row>
     <row r="18" spans="1:32" ht="15" customHeight="1">
       <c r="A18" s="12"/>
-      <c r="B18" s="133"/>
-      <c r="C18" s="133"/>
-      <c r="D18" s="133"/>
-      <c r="E18" s="133"/>
-      <c r="F18" s="133"/>
-      <c r="G18" s="133"/>
-      <c r="H18" s="133"/>
-      <c r="I18" s="133"/>
-      <c r="J18" s="133"/>
-      <c r="K18" s="133"/>
-      <c r="L18" s="133"/>
-      <c r="M18" s="133"/>
-      <c r="N18" s="133"/>
-      <c r="O18" s="133"/>
-      <c r="P18" s="133"/>
-      <c r="Q18" s="133"/>
-      <c r="R18" s="133"/>
-      <c r="S18" s="133"/>
-      <c r="T18" s="133"/>
-      <c r="U18" s="133"/>
-      <c r="V18" s="133"/>
-      <c r="W18" s="133"/>
-      <c r="X18" s="133"/>
-      <c r="Y18" s="133"/>
-      <c r="Z18" s="133"/>
-      <c r="AA18" s="133"/>
-      <c r="AB18" s="133"/>
-      <c r="AC18" s="133"/>
-      <c r="AD18" s="133"/>
-      <c r="AE18" s="133"/>
+      <c r="B18" s="153"/>
+      <c r="C18" s="153"/>
+      <c r="D18" s="153"/>
+      <c r="E18" s="153"/>
+      <c r="F18" s="153"/>
+      <c r="G18" s="153"/>
+      <c r="H18" s="153"/>
+      <c r="I18" s="153"/>
+      <c r="J18" s="153"/>
+      <c r="K18" s="153"/>
+      <c r="L18" s="153"/>
+      <c r="M18" s="153"/>
+      <c r="N18" s="153"/>
+      <c r="O18" s="153"/>
+      <c r="P18" s="153"/>
+      <c r="Q18" s="153"/>
+      <c r="R18" s="153"/>
+      <c r="S18" s="153"/>
+      <c r="T18" s="153"/>
+      <c r="U18" s="153"/>
+      <c r="V18" s="153"/>
+      <c r="W18" s="153"/>
+      <c r="X18" s="153"/>
+      <c r="Y18" s="153"/>
+      <c r="Z18" s="153"/>
+      <c r="AA18" s="153"/>
+      <c r="AB18" s="153"/>
+      <c r="AC18" s="153"/>
+      <c r="AD18" s="153"/>
+      <c r="AE18" s="153"/>
       <c r="AF18" s="12"/>
     </row>
     <row r="19" spans="1:32" ht="15" customHeight="1">
@@ -3717,392 +3717,392 @@
     </row>
     <row r="23" spans="1:32" s="39" customFormat="1" ht="29.25" customHeight="1">
       <c r="A23" s="37"/>
-      <c r="B23" s="124" t="s">
+      <c r="B23" s="140" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="125"/>
-      <c r="D23" s="125"/>
-      <c r="E23" s="126"/>
-      <c r="F23" s="124" t="s">
+      <c r="C23" s="143"/>
+      <c r="D23" s="143"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="140" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="125"/>
-      <c r="H23" s="125"/>
-      <c r="I23" s="126"/>
-      <c r="J23" s="124" t="s">
+      <c r="G23" s="143"/>
+      <c r="H23" s="143"/>
+      <c r="I23" s="141"/>
+      <c r="J23" s="140" t="s">
         <v>44</v>
       </c>
-      <c r="K23" s="125"/>
-      <c r="L23" s="125"/>
-      <c r="M23" s="125"/>
-      <c r="N23" s="125"/>
-      <c r="O23" s="125"/>
-      <c r="P23" s="125"/>
-      <c r="Q23" s="125"/>
-      <c r="R23" s="125"/>
-      <c r="S23" s="125"/>
-      <c r="T23" s="125"/>
-      <c r="U23" s="125"/>
-      <c r="V23" s="125"/>
-      <c r="W23" s="125"/>
-      <c r="X23" s="125"/>
-      <c r="Y23" s="125"/>
-      <c r="Z23" s="125"/>
-      <c r="AA23" s="125"/>
-      <c r="AB23" s="126"/>
-      <c r="AC23" s="124" t="s">
+      <c r="K23" s="143"/>
+      <c r="L23" s="143"/>
+      <c r="M23" s="143"/>
+      <c r="N23" s="143"/>
+      <c r="O23" s="143"/>
+      <c r="P23" s="143"/>
+      <c r="Q23" s="143"/>
+      <c r="R23" s="143"/>
+      <c r="S23" s="143"/>
+      <c r="T23" s="143"/>
+      <c r="U23" s="143"/>
+      <c r="V23" s="143"/>
+      <c r="W23" s="143"/>
+      <c r="X23" s="143"/>
+      <c r="Y23" s="143"/>
+      <c r="Z23" s="143"/>
+      <c r="AA23" s="143"/>
+      <c r="AB23" s="141"/>
+      <c r="AC23" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="AD23" s="125"/>
-      <c r="AE23" s="126"/>
+      <c r="AD23" s="143"/>
+      <c r="AE23" s="141"/>
       <c r="AF23" s="37"/>
     </row>
     <row r="24" spans="1:32" ht="29.25" customHeight="1">
       <c r="A24" s="12"/>
-      <c r="B24" s="124" t="s">
+      <c r="B24" s="140" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="125"/>
-      <c r="D24" s="125"/>
-      <c r="E24" s="126"/>
-      <c r="F24" s="127">
+      <c r="C24" s="143"/>
+      <c r="D24" s="143"/>
+      <c r="E24" s="141"/>
+      <c r="F24" s="154">
         <v>45189</v>
       </c>
-      <c r="G24" s="128"/>
-      <c r="H24" s="128"/>
-      <c r="I24" s="129"/>
-      <c r="J24" s="124" t="s">
+      <c r="G24" s="155"/>
+      <c r="H24" s="155"/>
+      <c r="I24" s="156"/>
+      <c r="J24" s="140" t="s">
         <v>60</v>
       </c>
-      <c r="K24" s="125"/>
-      <c r="L24" s="125"/>
-      <c r="M24" s="125"/>
-      <c r="N24" s="125"/>
-      <c r="O24" s="125"/>
-      <c r="P24" s="125"/>
-      <c r="Q24" s="125"/>
-      <c r="R24" s="125"/>
-      <c r="S24" s="125"/>
-      <c r="T24" s="125"/>
-      <c r="U24" s="125"/>
-      <c r="V24" s="125"/>
-      <c r="W24" s="125"/>
-      <c r="X24" s="125"/>
-      <c r="Y24" s="125"/>
-      <c r="Z24" s="125"/>
-      <c r="AA24" s="125"/>
-      <c r="AB24" s="126"/>
-      <c r="AC24" s="124" t="s">
+      <c r="K24" s="143"/>
+      <c r="L24" s="143"/>
+      <c r="M24" s="143"/>
+      <c r="N24" s="143"/>
+      <c r="O24" s="143"/>
+      <c r="P24" s="143"/>
+      <c r="Q24" s="143"/>
+      <c r="R24" s="143"/>
+      <c r="S24" s="143"/>
+      <c r="T24" s="143"/>
+      <c r="U24" s="143"/>
+      <c r="V24" s="143"/>
+      <c r="W24" s="143"/>
+      <c r="X24" s="143"/>
+      <c r="Y24" s="143"/>
+      <c r="Z24" s="143"/>
+      <c r="AA24" s="143"/>
+      <c r="AB24" s="141"/>
+      <c r="AC24" s="140" t="s">
         <v>91</v>
       </c>
-      <c r="AD24" s="125"/>
-      <c r="AE24" s="126"/>
+      <c r="AD24" s="143"/>
+      <c r="AE24" s="141"/>
       <c r="AF24" s="12"/>
     </row>
     <row r="25" spans="1:32" ht="29.25" customHeight="1">
       <c r="A25" s="12"/>
-      <c r="B25" s="124"/>
-      <c r="C25" s="125"/>
-      <c r="D25" s="125"/>
-      <c r="E25" s="126"/>
-      <c r="F25" s="127"/>
-      <c r="G25" s="128"/>
-      <c r="H25" s="128"/>
-      <c r="I25" s="129"/>
-      <c r="J25" s="130"/>
-      <c r="K25" s="131"/>
-      <c r="L25" s="131"/>
-      <c r="M25" s="131"/>
-      <c r="N25" s="131"/>
-      <c r="O25" s="131"/>
-      <c r="P25" s="131"/>
-      <c r="Q25" s="131"/>
-      <c r="R25" s="131"/>
-      <c r="S25" s="131"/>
-      <c r="T25" s="131"/>
-      <c r="U25" s="131"/>
-      <c r="V25" s="131"/>
-      <c r="W25" s="131"/>
-      <c r="X25" s="131"/>
-      <c r="Y25" s="131"/>
-      <c r="Z25" s="131"/>
-      <c r="AA25" s="131"/>
-      <c r="AB25" s="132"/>
-      <c r="AC25" s="124"/>
-      <c r="AD25" s="125"/>
-      <c r="AE25" s="126"/>
+      <c r="B25" s="140"/>
+      <c r="C25" s="143"/>
+      <c r="D25" s="143"/>
+      <c r="E25" s="141"/>
+      <c r="F25" s="154"/>
+      <c r="G25" s="155"/>
+      <c r="H25" s="155"/>
+      <c r="I25" s="156"/>
+      <c r="J25" s="157"/>
+      <c r="K25" s="158"/>
+      <c r="L25" s="158"/>
+      <c r="M25" s="158"/>
+      <c r="N25" s="158"/>
+      <c r="O25" s="158"/>
+      <c r="P25" s="158"/>
+      <c r="Q25" s="158"/>
+      <c r="R25" s="158"/>
+      <c r="S25" s="158"/>
+      <c r="T25" s="158"/>
+      <c r="U25" s="158"/>
+      <c r="V25" s="158"/>
+      <c r="W25" s="158"/>
+      <c r="X25" s="158"/>
+      <c r="Y25" s="158"/>
+      <c r="Z25" s="158"/>
+      <c r="AA25" s="158"/>
+      <c r="AB25" s="159"/>
+      <c r="AC25" s="140"/>
+      <c r="AD25" s="143"/>
+      <c r="AE25" s="141"/>
       <c r="AF25" s="12"/>
     </row>
     <row r="26" spans="1:32" ht="29.25" customHeight="1">
       <c r="A26" s="12"/>
-      <c r="B26" s="124"/>
-      <c r="C26" s="125"/>
-      <c r="D26" s="125"/>
-      <c r="E26" s="126"/>
-      <c r="F26" s="127"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="129"/>
-      <c r="J26" s="130"/>
-      <c r="K26" s="131"/>
-      <c r="L26" s="131"/>
-      <c r="M26" s="131"/>
-      <c r="N26" s="131"/>
-      <c r="O26" s="131"/>
-      <c r="P26" s="131"/>
-      <c r="Q26" s="131"/>
-      <c r="R26" s="131"/>
-      <c r="S26" s="131"/>
-      <c r="T26" s="131"/>
-      <c r="U26" s="131"/>
-      <c r="V26" s="131"/>
-      <c r="W26" s="131"/>
-      <c r="X26" s="131"/>
-      <c r="Y26" s="131"/>
-      <c r="Z26" s="131"/>
-      <c r="AA26" s="131"/>
-      <c r="AB26" s="132"/>
-      <c r="AC26" s="124"/>
-      <c r="AD26" s="125"/>
-      <c r="AE26" s="126"/>
+      <c r="B26" s="140"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="143"/>
+      <c r="E26" s="141"/>
+      <c r="F26" s="154"/>
+      <c r="G26" s="155"/>
+      <c r="H26" s="155"/>
+      <c r="I26" s="156"/>
+      <c r="J26" s="157"/>
+      <c r="K26" s="158"/>
+      <c r="L26" s="158"/>
+      <c r="M26" s="158"/>
+      <c r="N26" s="158"/>
+      <c r="O26" s="158"/>
+      <c r="P26" s="158"/>
+      <c r="Q26" s="158"/>
+      <c r="R26" s="158"/>
+      <c r="S26" s="158"/>
+      <c r="T26" s="158"/>
+      <c r="U26" s="158"/>
+      <c r="V26" s="158"/>
+      <c r="W26" s="158"/>
+      <c r="X26" s="158"/>
+      <c r="Y26" s="158"/>
+      <c r="Z26" s="158"/>
+      <c r="AA26" s="158"/>
+      <c r="AB26" s="159"/>
+      <c r="AC26" s="140"/>
+      <c r="AD26" s="143"/>
+      <c r="AE26" s="141"/>
       <c r="AF26" s="12"/>
     </row>
     <row r="27" spans="1:32" ht="29.25" customHeight="1">
       <c r="A27" s="12"/>
-      <c r="B27" s="124"/>
-      <c r="C27" s="125"/>
-      <c r="D27" s="125"/>
-      <c r="E27" s="126"/>
-      <c r="F27" s="127"/>
-      <c r="G27" s="128"/>
-      <c r="H27" s="128"/>
-      <c r="I27" s="129"/>
-      <c r="J27" s="130"/>
-      <c r="K27" s="131"/>
-      <c r="L27" s="131"/>
-      <c r="M27" s="131"/>
-      <c r="N27" s="131"/>
-      <c r="O27" s="131"/>
-      <c r="P27" s="131"/>
-      <c r="Q27" s="131"/>
-      <c r="R27" s="131"/>
-      <c r="S27" s="131"/>
-      <c r="T27" s="131"/>
-      <c r="U27" s="131"/>
-      <c r="V27" s="131"/>
-      <c r="W27" s="131"/>
-      <c r="X27" s="131"/>
-      <c r="Y27" s="131"/>
-      <c r="Z27" s="131"/>
-      <c r="AA27" s="131"/>
-      <c r="AB27" s="132"/>
-      <c r="AC27" s="124"/>
-      <c r="AD27" s="125"/>
-      <c r="AE27" s="126"/>
+      <c r="B27" s="140"/>
+      <c r="C27" s="143"/>
+      <c r="D27" s="143"/>
+      <c r="E27" s="141"/>
+      <c r="F27" s="154"/>
+      <c r="G27" s="155"/>
+      <c r="H27" s="155"/>
+      <c r="I27" s="156"/>
+      <c r="J27" s="157"/>
+      <c r="K27" s="158"/>
+      <c r="L27" s="158"/>
+      <c r="M27" s="158"/>
+      <c r="N27" s="158"/>
+      <c r="O27" s="158"/>
+      <c r="P27" s="158"/>
+      <c r="Q27" s="158"/>
+      <c r="R27" s="158"/>
+      <c r="S27" s="158"/>
+      <c r="T27" s="158"/>
+      <c r="U27" s="158"/>
+      <c r="V27" s="158"/>
+      <c r="W27" s="158"/>
+      <c r="X27" s="158"/>
+      <c r="Y27" s="158"/>
+      <c r="Z27" s="158"/>
+      <c r="AA27" s="158"/>
+      <c r="AB27" s="159"/>
+      <c r="AC27" s="140"/>
+      <c r="AD27" s="143"/>
+      <c r="AE27" s="141"/>
       <c r="AF27" s="12"/>
     </row>
     <row r="28" spans="1:32" ht="29.25" customHeight="1">
       <c r="A28" s="12"/>
-      <c r="B28" s="124"/>
-      <c r="C28" s="125"/>
-      <c r="D28" s="125"/>
-      <c r="E28" s="126"/>
-      <c r="F28" s="127"/>
-      <c r="G28" s="128"/>
-      <c r="H28" s="128"/>
-      <c r="I28" s="129"/>
-      <c r="J28" s="130"/>
-      <c r="K28" s="131"/>
-      <c r="L28" s="131"/>
-      <c r="M28" s="131"/>
-      <c r="N28" s="131"/>
-      <c r="O28" s="131"/>
-      <c r="P28" s="131"/>
-      <c r="Q28" s="131"/>
-      <c r="R28" s="131"/>
-      <c r="S28" s="131"/>
-      <c r="T28" s="131"/>
-      <c r="U28" s="131"/>
-      <c r="V28" s="131"/>
-      <c r="W28" s="131"/>
-      <c r="X28" s="131"/>
-      <c r="Y28" s="131"/>
-      <c r="Z28" s="131"/>
-      <c r="AA28" s="131"/>
-      <c r="AB28" s="132"/>
-      <c r="AC28" s="124"/>
-      <c r="AD28" s="125"/>
-      <c r="AE28" s="126"/>
+      <c r="B28" s="140"/>
+      <c r="C28" s="143"/>
+      <c r="D28" s="143"/>
+      <c r="E28" s="141"/>
+      <c r="F28" s="154"/>
+      <c r="G28" s="155"/>
+      <c r="H28" s="155"/>
+      <c r="I28" s="156"/>
+      <c r="J28" s="157"/>
+      <c r="K28" s="158"/>
+      <c r="L28" s="158"/>
+      <c r="M28" s="158"/>
+      <c r="N28" s="158"/>
+      <c r="O28" s="158"/>
+      <c r="P28" s="158"/>
+      <c r="Q28" s="158"/>
+      <c r="R28" s="158"/>
+      <c r="S28" s="158"/>
+      <c r="T28" s="158"/>
+      <c r="U28" s="158"/>
+      <c r="V28" s="158"/>
+      <c r="W28" s="158"/>
+      <c r="X28" s="158"/>
+      <c r="Y28" s="158"/>
+      <c r="Z28" s="158"/>
+      <c r="AA28" s="158"/>
+      <c r="AB28" s="159"/>
+      <c r="AC28" s="140"/>
+      <c r="AD28" s="143"/>
+      <c r="AE28" s="141"/>
       <c r="AF28" s="12"/>
     </row>
     <row r="29" spans="1:32" ht="29.25" customHeight="1">
       <c r="A29" s="12"/>
-      <c r="B29" s="124"/>
-      <c r="C29" s="125"/>
-      <c r="D29" s="125"/>
-      <c r="E29" s="126"/>
-      <c r="F29" s="127"/>
-      <c r="G29" s="128"/>
-      <c r="H29" s="128"/>
-      <c r="I29" s="129"/>
-      <c r="J29" s="130"/>
-      <c r="K29" s="131"/>
-      <c r="L29" s="131"/>
-      <c r="M29" s="131"/>
-      <c r="N29" s="131"/>
-      <c r="O29" s="131"/>
-      <c r="P29" s="131"/>
-      <c r="Q29" s="131"/>
-      <c r="R29" s="131"/>
-      <c r="S29" s="131"/>
-      <c r="T29" s="131"/>
-      <c r="U29" s="131"/>
-      <c r="V29" s="131"/>
-      <c r="W29" s="131"/>
-      <c r="X29" s="131"/>
-      <c r="Y29" s="131"/>
-      <c r="Z29" s="131"/>
-      <c r="AA29" s="131"/>
-      <c r="AB29" s="132"/>
-      <c r="AC29" s="124"/>
-      <c r="AD29" s="125"/>
-      <c r="AE29" s="126"/>
+      <c r="B29" s="140"/>
+      <c r="C29" s="143"/>
+      <c r="D29" s="143"/>
+      <c r="E29" s="141"/>
+      <c r="F29" s="154"/>
+      <c r="G29" s="155"/>
+      <c r="H29" s="155"/>
+      <c r="I29" s="156"/>
+      <c r="J29" s="157"/>
+      <c r="K29" s="158"/>
+      <c r="L29" s="158"/>
+      <c r="M29" s="158"/>
+      <c r="N29" s="158"/>
+      <c r="O29" s="158"/>
+      <c r="P29" s="158"/>
+      <c r="Q29" s="158"/>
+      <c r="R29" s="158"/>
+      <c r="S29" s="158"/>
+      <c r="T29" s="158"/>
+      <c r="U29" s="158"/>
+      <c r="V29" s="158"/>
+      <c r="W29" s="158"/>
+      <c r="X29" s="158"/>
+      <c r="Y29" s="158"/>
+      <c r="Z29" s="158"/>
+      <c r="AA29" s="158"/>
+      <c r="AB29" s="159"/>
+      <c r="AC29" s="140"/>
+      <c r="AD29" s="143"/>
+      <c r="AE29" s="141"/>
       <c r="AF29" s="12"/>
     </row>
     <row r="30" spans="1:32" ht="29.25" customHeight="1">
       <c r="A30" s="12"/>
-      <c r="B30" s="124"/>
-      <c r="C30" s="125"/>
-      <c r="D30" s="125"/>
-      <c r="E30" s="126"/>
-      <c r="F30" s="127"/>
-      <c r="G30" s="128"/>
-      <c r="H30" s="128"/>
-      <c r="I30" s="129"/>
-      <c r="J30" s="130"/>
-      <c r="K30" s="131"/>
-      <c r="L30" s="131"/>
-      <c r="M30" s="131"/>
-      <c r="N30" s="131"/>
-      <c r="O30" s="131"/>
-      <c r="P30" s="131"/>
-      <c r="Q30" s="131"/>
-      <c r="R30" s="131"/>
-      <c r="S30" s="131"/>
-      <c r="T30" s="131"/>
-      <c r="U30" s="131"/>
-      <c r="V30" s="131"/>
-      <c r="W30" s="131"/>
-      <c r="X30" s="131"/>
-      <c r="Y30" s="131"/>
-      <c r="Z30" s="131"/>
-      <c r="AA30" s="131"/>
-      <c r="AB30" s="132"/>
-      <c r="AC30" s="124"/>
-      <c r="AD30" s="125"/>
-      <c r="AE30" s="126"/>
+      <c r="B30" s="140"/>
+      <c r="C30" s="143"/>
+      <c r="D30" s="143"/>
+      <c r="E30" s="141"/>
+      <c r="F30" s="154"/>
+      <c r="G30" s="155"/>
+      <c r="H30" s="155"/>
+      <c r="I30" s="156"/>
+      <c r="J30" s="157"/>
+      <c r="K30" s="158"/>
+      <c r="L30" s="158"/>
+      <c r="M30" s="158"/>
+      <c r="N30" s="158"/>
+      <c r="O30" s="158"/>
+      <c r="P30" s="158"/>
+      <c r="Q30" s="158"/>
+      <c r="R30" s="158"/>
+      <c r="S30" s="158"/>
+      <c r="T30" s="158"/>
+      <c r="U30" s="158"/>
+      <c r="V30" s="158"/>
+      <c r="W30" s="158"/>
+      <c r="X30" s="158"/>
+      <c r="Y30" s="158"/>
+      <c r="Z30" s="158"/>
+      <c r="AA30" s="158"/>
+      <c r="AB30" s="159"/>
+      <c r="AC30" s="140"/>
+      <c r="AD30" s="143"/>
+      <c r="AE30" s="141"/>
       <c r="AF30" s="12"/>
     </row>
     <row r="31" spans="1:32" ht="29.25" customHeight="1">
       <c r="A31" s="12"/>
-      <c r="B31" s="124"/>
-      <c r="C31" s="125"/>
-      <c r="D31" s="125"/>
-      <c r="E31" s="126"/>
-      <c r="F31" s="127"/>
-      <c r="G31" s="128"/>
-      <c r="H31" s="128"/>
-      <c r="I31" s="129"/>
-      <c r="J31" s="130"/>
-      <c r="K31" s="131"/>
-      <c r="L31" s="131"/>
-      <c r="M31" s="131"/>
-      <c r="N31" s="131"/>
-      <c r="O31" s="131"/>
-      <c r="P31" s="131"/>
-      <c r="Q31" s="131"/>
-      <c r="R31" s="131"/>
-      <c r="S31" s="131"/>
-      <c r="T31" s="131"/>
-      <c r="U31" s="131"/>
-      <c r="V31" s="131"/>
-      <c r="W31" s="131"/>
-      <c r="X31" s="131"/>
-      <c r="Y31" s="131"/>
-      <c r="Z31" s="131"/>
-      <c r="AA31" s="131"/>
-      <c r="AB31" s="132"/>
-      <c r="AC31" s="124"/>
-      <c r="AD31" s="125"/>
-      <c r="AE31" s="126"/>
+      <c r="B31" s="140"/>
+      <c r="C31" s="143"/>
+      <c r="D31" s="143"/>
+      <c r="E31" s="141"/>
+      <c r="F31" s="154"/>
+      <c r="G31" s="155"/>
+      <c r="H31" s="155"/>
+      <c r="I31" s="156"/>
+      <c r="J31" s="157"/>
+      <c r="K31" s="158"/>
+      <c r="L31" s="158"/>
+      <c r="M31" s="158"/>
+      <c r="N31" s="158"/>
+      <c r="O31" s="158"/>
+      <c r="P31" s="158"/>
+      <c r="Q31" s="158"/>
+      <c r="R31" s="158"/>
+      <c r="S31" s="158"/>
+      <c r="T31" s="158"/>
+      <c r="U31" s="158"/>
+      <c r="V31" s="158"/>
+      <c r="W31" s="158"/>
+      <c r="X31" s="158"/>
+      <c r="Y31" s="158"/>
+      <c r="Z31" s="158"/>
+      <c r="AA31" s="158"/>
+      <c r="AB31" s="159"/>
+      <c r="AC31" s="140"/>
+      <c r="AD31" s="143"/>
+      <c r="AE31" s="141"/>
       <c r="AF31" s="12"/>
     </row>
     <row r="32" spans="1:32" ht="29.25" customHeight="1">
       <c r="A32" s="12"/>
-      <c r="B32" s="124"/>
-      <c r="C32" s="125"/>
-      <c r="D32" s="125"/>
-      <c r="E32" s="126"/>
-      <c r="F32" s="127"/>
-      <c r="G32" s="128"/>
-      <c r="H32" s="128"/>
-      <c r="I32" s="129"/>
-      <c r="J32" s="130"/>
-      <c r="K32" s="131"/>
-      <c r="L32" s="131"/>
-      <c r="M32" s="131"/>
-      <c r="N32" s="131"/>
-      <c r="O32" s="131"/>
-      <c r="P32" s="131"/>
-      <c r="Q32" s="131"/>
-      <c r="R32" s="131"/>
-      <c r="S32" s="131"/>
-      <c r="T32" s="131"/>
-      <c r="U32" s="131"/>
-      <c r="V32" s="131"/>
-      <c r="W32" s="131"/>
-      <c r="X32" s="131"/>
-      <c r="Y32" s="131"/>
-      <c r="Z32" s="131"/>
-      <c r="AA32" s="131"/>
-      <c r="AB32" s="132"/>
-      <c r="AC32" s="124"/>
-      <c r="AD32" s="125"/>
-      <c r="AE32" s="126"/>
+      <c r="B32" s="140"/>
+      <c r="C32" s="143"/>
+      <c r="D32" s="143"/>
+      <c r="E32" s="141"/>
+      <c r="F32" s="154"/>
+      <c r="G32" s="155"/>
+      <c r="H32" s="155"/>
+      <c r="I32" s="156"/>
+      <c r="J32" s="157"/>
+      <c r="K32" s="158"/>
+      <c r="L32" s="158"/>
+      <c r="M32" s="158"/>
+      <c r="N32" s="158"/>
+      <c r="O32" s="158"/>
+      <c r="P32" s="158"/>
+      <c r="Q32" s="158"/>
+      <c r="R32" s="158"/>
+      <c r="S32" s="158"/>
+      <c r="T32" s="158"/>
+      <c r="U32" s="158"/>
+      <c r="V32" s="158"/>
+      <c r="W32" s="158"/>
+      <c r="X32" s="158"/>
+      <c r="Y32" s="158"/>
+      <c r="Z32" s="158"/>
+      <c r="AA32" s="158"/>
+      <c r="AB32" s="159"/>
+      <c r="AC32" s="140"/>
+      <c r="AD32" s="143"/>
+      <c r="AE32" s="141"/>
       <c r="AF32" s="12"/>
     </row>
     <row r="33" spans="1:32" ht="29.25" customHeight="1">
       <c r="A33" s="12"/>
-      <c r="B33" s="124"/>
-      <c r="C33" s="125"/>
-      <c r="D33" s="125"/>
-      <c r="E33" s="126"/>
-      <c r="F33" s="127"/>
-      <c r="G33" s="128"/>
-      <c r="H33" s="128"/>
-      <c r="I33" s="129"/>
-      <c r="J33" s="130"/>
-      <c r="K33" s="131"/>
-      <c r="L33" s="131"/>
-      <c r="M33" s="131"/>
-      <c r="N33" s="131"/>
-      <c r="O33" s="131"/>
-      <c r="P33" s="131"/>
-      <c r="Q33" s="131"/>
-      <c r="R33" s="131"/>
-      <c r="S33" s="131"/>
-      <c r="T33" s="131"/>
-      <c r="U33" s="131"/>
-      <c r="V33" s="131"/>
-      <c r="W33" s="131"/>
-      <c r="X33" s="131"/>
-      <c r="Y33" s="131"/>
-      <c r="Z33" s="131"/>
-      <c r="AA33" s="131"/>
-      <c r="AB33" s="132"/>
-      <c r="AC33" s="124"/>
-      <c r="AD33" s="125"/>
-      <c r="AE33" s="126"/>
+      <c r="B33" s="140"/>
+      <c r="C33" s="143"/>
+      <c r="D33" s="143"/>
+      <c r="E33" s="141"/>
+      <c r="F33" s="154"/>
+      <c r="G33" s="155"/>
+      <c r="H33" s="155"/>
+      <c r="I33" s="156"/>
+      <c r="J33" s="157"/>
+      <c r="K33" s="158"/>
+      <c r="L33" s="158"/>
+      <c r="M33" s="158"/>
+      <c r="N33" s="158"/>
+      <c r="O33" s="158"/>
+      <c r="P33" s="158"/>
+      <c r="Q33" s="158"/>
+      <c r="R33" s="158"/>
+      <c r="S33" s="158"/>
+      <c r="T33" s="158"/>
+      <c r="U33" s="158"/>
+      <c r="V33" s="158"/>
+      <c r="W33" s="158"/>
+      <c r="X33" s="158"/>
+      <c r="Y33" s="158"/>
+      <c r="Z33" s="158"/>
+      <c r="AA33" s="158"/>
+      <c r="AB33" s="159"/>
+      <c r="AC33" s="140"/>
+      <c r="AD33" s="143"/>
+      <c r="AE33" s="141"/>
       <c r="AF33" s="12"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
@@ -4140,6 +4140,51 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B16:AE18"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
     <mergeCell ref="AC8:AE8"/>
     <mergeCell ref="F7:Q7"/>
     <mergeCell ref="B8:E9"/>
@@ -4151,51 +4196,6 @@
     <mergeCell ref="AC9:AE12"/>
     <mergeCell ref="Z9:AB12"/>
     <mergeCell ref="W9:Y12"/>
-    <mergeCell ref="B16:AE18"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -4219,8 +4219,8 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11"/>
@@ -4245,10 +4245,10 @@
       <c r="F1" s="108"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="160" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="167"/>
+      <c r="B2" s="161"/>
       <c r="C2" s="30" t="s">
         <v>57</v>
       </c>
@@ -4261,10 +4261,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1">
-      <c r="A3" s="166" t="s">
+      <c r="A3" s="160" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="167"/>
+      <c r="B3" s="161"/>
       <c r="C3" s="30" t="s">
         <v>61</v>
       </c>
@@ -4277,10 +4277,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1">
-      <c r="A4" s="166" t="s">
+      <c r="A4" s="160" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="167"/>
+      <c r="B4" s="161"/>
       <c r="C4" s="30" t="s">
         <v>62</v>
       </c>
@@ -4293,10 +4293,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1">
-      <c r="A5" s="166" t="s">
+      <c r="A5" s="160" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="167"/>
+      <c r="B5" s="161"/>
       <c r="C5" s="30" t="s">
         <v>63</v>
       </c>
@@ -4307,10 +4307,10 @@
       <c r="F5" s="91"/>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1">
-      <c r="A6" s="166" t="s">
+      <c r="A6" s="160" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="167"/>
+      <c r="B6" s="161"/>
       <c r="C6" s="30" t="s">
         <v>64</v>
       </c>
@@ -4351,10 +4351,10 @@
       <c r="D9" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="164" t="s">
+      <c r="E9" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="165"/>
+      <c r="F9" s="167"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1">
       <c r="A10" s="59">
@@ -4369,10 +4369,10 @@
       <c r="D10" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="160" t="s">
+      <c r="E10" s="162" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="161"/>
+      <c r="F10" s="163"/>
     </row>
     <row r="11" spans="1:6" ht="33.75" customHeight="1">
       <c r="A11" s="59">
@@ -4381,8 +4381,8 @@
       <c r="B11" s="60"/>
       <c r="C11" s="60"/>
       <c r="D11" s="60"/>
-      <c r="E11" s="160"/>
-      <c r="F11" s="161"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="163"/>
     </row>
     <row r="12" spans="1:6" ht="33.75" customHeight="1">
       <c r="A12" s="59">
@@ -4391,8 +4391,8 @@
       <c r="B12" s="60"/>
       <c r="C12" s="60"/>
       <c r="D12" s="60"/>
-      <c r="E12" s="160"/>
-      <c r="F12" s="161"/>
+      <c r="E12" s="162"/>
+      <c r="F12" s="163"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1">
       <c r="A13" s="59">
@@ -4401,8 +4401,8 @@
       <c r="B13" s="60"/>
       <c r="C13" s="60"/>
       <c r="D13" s="60"/>
-      <c r="E13" s="160"/>
-      <c r="F13" s="161"/>
+      <c r="E13" s="162"/>
+      <c r="F13" s="163"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1">
       <c r="A14" s="59">
@@ -4411,32 +4411,32 @@
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="D14" s="60"/>
-      <c r="E14" s="160"/>
-      <c r="F14" s="161"/>
+      <c r="E14" s="162"/>
+      <c r="F14" s="163"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="162"/>
-      <c r="F15" s="163"/>
+      <c r="E15" s="164"/>
+      <c r="F15" s="165"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="162"/>
-      <c r="F16" s="163"/>
+      <c r="E16" s="164"/>
+      <c r="F16" s="165"/>
     </row>
     <row r="17" spans="1:6" ht="33.75" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="162"/>
-      <c r="F17" s="163"/>
+      <c r="E17" s="164"/>
+      <c r="F17" s="165"/>
     </row>
     <row r="18" spans="1:6" ht="29.25" customHeight="1">
       <c r="A18" s="29" t="s">
@@ -4678,11 +4678,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
@@ -4692,6 +4687,11 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4712,8 +4712,8 @@
   </sheetPr>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
@@ -4811,42 +4811,42 @@
         <v>47</v>
       </c>
       <c r="B6" s="45"/>
-      <c r="C6" s="170" t="s">
+      <c r="C6" s="196" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="171"/>
-      <c r="E6" s="171"/>
-      <c r="F6" s="171"/>
-      <c r="G6" s="171"/>
-      <c r="H6" s="172"/>
+      <c r="D6" s="197"/>
+      <c r="E6" s="197"/>
+      <c r="F6" s="197"/>
+      <c r="G6" s="197"/>
+      <c r="H6" s="198"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="40" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="45"/>
-      <c r="C7" s="170" t="s">
+      <c r="C7" s="196" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="171"/>
-      <c r="E7" s="171"/>
-      <c r="F7" s="171"/>
-      <c r="G7" s="171"/>
-      <c r="H7" s="172"/>
+      <c r="D7" s="197"/>
+      <c r="E7" s="197"/>
+      <c r="F7" s="197"/>
+      <c r="G7" s="197"/>
+      <c r="H7" s="198"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="40" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="45"/>
-      <c r="C8" s="170" t="s">
+      <c r="C8" s="196" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="171"/>
-      <c r="E8" s="171"/>
-      <c r="F8" s="171"/>
-      <c r="G8" s="171"/>
-      <c r="H8" s="172"/>
+      <c r="D8" s="197"/>
+      <c r="E8" s="197"/>
+      <c r="F8" s="197"/>
+      <c r="G8" s="197"/>
+      <c r="H8" s="198"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="46" t="s">
@@ -4867,10 +4867,10 @@
       <c r="B10" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="173" t="s">
+      <c r="C10" s="182" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="174"/>
+      <c r="D10" s="199"/>
       <c r="E10" s="48" t="s">
         <v>1</v>
       </c>
@@ -4891,10 +4891,10 @@
       <c r="B11" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="175" t="s">
+      <c r="C11" s="200" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="176"/>
+      <c r="D11" s="201"/>
       <c r="E11" s="63" t="s">
         <v>73</v>
       </c>
@@ -4913,10 +4913,10 @@
       <c r="B12" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="168" t="s">
+      <c r="C12" s="192" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="169"/>
+      <c r="D12" s="193"/>
       <c r="E12" s="68" t="s">
         <v>74</v>
       </c>
@@ -4933,10 +4933,10 @@
       <c r="B13" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="168" t="s">
+      <c r="C13" s="192" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="169"/>
+      <c r="D13" s="193"/>
       <c r="E13" s="68" t="s">
         <v>74</v>
       </c>
@@ -4949,8 +4949,8 @@
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="71"/>
       <c r="B14" s="72"/>
-      <c r="C14" s="168"/>
-      <c r="D14" s="169"/>
+      <c r="C14" s="192"/>
+      <c r="D14" s="193"/>
       <c r="E14" s="73"/>
       <c r="F14" s="73"/>
       <c r="G14" s="74"/>
@@ -4959,8 +4959,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="71"/>
       <c r="B15" s="72"/>
-      <c r="C15" s="168"/>
-      <c r="D15" s="169"/>
+      <c r="C15" s="192"/>
+      <c r="D15" s="193"/>
       <c r="E15" s="73"/>
       <c r="F15" s="73"/>
       <c r="G15" s="74"/>
@@ -4969,8 +4969,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="71"/>
       <c r="B16" s="72"/>
-      <c r="C16" s="168"/>
-      <c r="D16" s="169"/>
+      <c r="C16" s="192"/>
+      <c r="D16" s="193"/>
       <c r="E16" s="73"/>
       <c r="F16" s="73"/>
       <c r="G16" s="74"/>
@@ -4979,8 +4979,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="71"/>
       <c r="B17" s="72"/>
-      <c r="C17" s="168"/>
-      <c r="D17" s="169"/>
+      <c r="C17" s="192"/>
+      <c r="D17" s="193"/>
       <c r="E17" s="73"/>
       <c r="F17" s="73"/>
       <c r="G17" s="74"/>
@@ -4989,8 +4989,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="71"/>
       <c r="B18" s="72"/>
-      <c r="C18" s="168"/>
-      <c r="D18" s="169"/>
+      <c r="C18" s="192"/>
+      <c r="D18" s="193"/>
       <c r="E18" s="73"/>
       <c r="F18" s="73"/>
       <c r="G18" s="74"/>
@@ -4999,8 +4999,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="168"/>
-      <c r="D19" s="169"/>
+      <c r="C19" s="192"/>
+      <c r="D19" s="193"/>
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
       <c r="G19" s="74"/>
@@ -5009,8 +5009,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="72"/>
-      <c r="C20" s="168"/>
-      <c r="D20" s="169"/>
+      <c r="C20" s="192"/>
+      <c r="D20" s="193"/>
       <c r="E20" s="73"/>
       <c r="F20" s="73"/>
       <c r="G20" s="74"/>
@@ -5019,8 +5019,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="168"/>
-      <c r="D21" s="169"/>
+      <c r="C21" s="192"/>
+      <c r="D21" s="193"/>
       <c r="E21" s="73"/>
       <c r="F21" s="73"/>
       <c r="G21" s="74"/>
@@ -5029,8 +5029,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="168"/>
-      <c r="D22" s="169"/>
+      <c r="C22" s="192"/>
+      <c r="D22" s="193"/>
       <c r="E22" s="73"/>
       <c r="F22" s="73"/>
       <c r="G22" s="74"/>
@@ -5039,8 +5039,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="168"/>
-      <c r="D23" s="169"/>
+      <c r="C23" s="192"/>
+      <c r="D23" s="193"/>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
       <c r="G23" s="74"/>
@@ -5049,8 +5049,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="168"/>
-      <c r="D24" s="169"/>
+      <c r="C24" s="192"/>
+      <c r="D24" s="193"/>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
       <c r="G24" s="74"/>
@@ -5059,8 +5059,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="168"/>
-      <c r="D25" s="169"/>
+      <c r="C25" s="192"/>
+      <c r="D25" s="193"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="74"/>
@@ -5069,8 +5069,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="168"/>
-      <c r="D26" s="169"/>
+      <c r="C26" s="192"/>
+      <c r="D26" s="193"/>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
       <c r="G26" s="74"/>
@@ -5079,8 +5079,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="72"/>
-      <c r="C27" s="168"/>
-      <c r="D27" s="169"/>
+      <c r="C27" s="192"/>
+      <c r="D27" s="193"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
       <c r="G27" s="74"/>
@@ -5089,8 +5089,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="168"/>
-      <c r="D28" s="169"/>
+      <c r="C28" s="192"/>
+      <c r="D28" s="193"/>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="74"/>
@@ -5099,8 +5099,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="168"/>
-      <c r="D29" s="169"/>
+      <c r="C29" s="192"/>
+      <c r="D29" s="193"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
       <c r="G29" s="74"/>
@@ -5109,8 +5109,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="76"/>
       <c r="B30" s="77"/>
-      <c r="C30" s="182"/>
-      <c r="D30" s="183"/>
+      <c r="C30" s="171"/>
+      <c r="D30" s="173"/>
       <c r="E30" s="78"/>
       <c r="F30" s="78"/>
       <c r="G30" s="79"/>
@@ -5142,10 +5142,10 @@
       <c r="A33" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="184" t="s">
+      <c r="B33" s="179" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="185"/>
+      <c r="C33" s="181"/>
       <c r="D33" s="54" t="s">
         <v>9</v>
       </c>
@@ -5160,51 +5160,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="61"/>
-      <c r="B34" s="186"/>
-      <c r="C34" s="187"/>
-      <c r="D34" s="188"/>
-      <c r="E34" s="189"/>
-      <c r="F34" s="190"/>
+      <c r="B34" s="194"/>
+      <c r="C34" s="195"/>
+      <c r="D34" s="184"/>
+      <c r="E34" s="185"/>
+      <c r="F34" s="186"/>
       <c r="G34" s="64"/>
       <c r="H34" s="65"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="66"/>
-      <c r="B35" s="177"/>
-      <c r="C35" s="178"/>
-      <c r="D35" s="179"/>
-      <c r="E35" s="180"/>
-      <c r="F35" s="181"/>
+      <c r="B35" s="187"/>
+      <c r="C35" s="188"/>
+      <c r="D35" s="168"/>
+      <c r="E35" s="169"/>
+      <c r="F35" s="170"/>
       <c r="G35" s="69"/>
       <c r="H35" s="70"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="66"/>
-      <c r="B36" s="177"/>
-      <c r="C36" s="178"/>
-      <c r="D36" s="179"/>
-      <c r="E36" s="180"/>
-      <c r="F36" s="181"/>
+      <c r="B36" s="187"/>
+      <c r="C36" s="188"/>
+      <c r="D36" s="168"/>
+      <c r="E36" s="169"/>
+      <c r="F36" s="170"/>
       <c r="G36" s="69"/>
       <c r="H36" s="70"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="177"/>
-      <c r="C37" s="178"/>
-      <c r="D37" s="179"/>
-      <c r="E37" s="180"/>
-      <c r="F37" s="181"/>
+      <c r="B37" s="187"/>
+      <c r="C37" s="188"/>
+      <c r="D37" s="168"/>
+      <c r="E37" s="169"/>
+      <c r="F37" s="170"/>
       <c r="G37" s="69"/>
       <c r="H37" s="70"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="76"/>
-      <c r="B38" s="191"/>
-      <c r="C38" s="192"/>
-      <c r="D38" s="182"/>
-      <c r="E38" s="193"/>
-      <c r="F38" s="183"/>
+      <c r="B38" s="189"/>
+      <c r="C38" s="190"/>
+      <c r="D38" s="171"/>
+      <c r="E38" s="172"/>
+      <c r="F38" s="173"/>
       <c r="G38" s="79"/>
       <c r="H38" s="80"/>
     </row>
@@ -5237,15 +5237,15 @@
       <c r="B41" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="184" t="s">
+      <c r="C41" s="179" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="194"/>
-      <c r="E41" s="185"/>
-      <c r="F41" s="184" t="s">
+      <c r="D41" s="180"/>
+      <c r="E41" s="181"/>
+      <c r="F41" s="179" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="195"/>
+      <c r="G41" s="191"/>
       <c r="H41" s="58" t="s">
         <v>14</v>
       </c>
@@ -5253,51 +5253,51 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="81"/>
       <c r="B42" s="82"/>
-      <c r="C42" s="188"/>
-      <c r="D42" s="189"/>
-      <c r="E42" s="190"/>
-      <c r="F42" s="188"/>
-      <c r="G42" s="190"/>
+      <c r="C42" s="184"/>
+      <c r="D42" s="185"/>
+      <c r="E42" s="186"/>
+      <c r="F42" s="184"/>
+      <c r="G42" s="186"/>
       <c r="H42" s="83"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="84"/>
       <c r="B43" s="85"/>
-      <c r="C43" s="179"/>
-      <c r="D43" s="180"/>
-      <c r="E43" s="181"/>
-      <c r="F43" s="179"/>
-      <c r="G43" s="181"/>
+      <c r="C43" s="168"/>
+      <c r="D43" s="169"/>
+      <c r="E43" s="170"/>
+      <c r="F43" s="168"/>
+      <c r="G43" s="170"/>
       <c r="H43" s="86"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="84"/>
       <c r="B44" s="85"/>
-      <c r="C44" s="179"/>
-      <c r="D44" s="180"/>
-      <c r="E44" s="181"/>
-      <c r="F44" s="179"/>
-      <c r="G44" s="181"/>
+      <c r="C44" s="168"/>
+      <c r="D44" s="169"/>
+      <c r="E44" s="170"/>
+      <c r="F44" s="168"/>
+      <c r="G44" s="170"/>
       <c r="H44" s="86"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="84"/>
       <c r="B45" s="85"/>
-      <c r="C45" s="179"/>
-      <c r="D45" s="180"/>
-      <c r="E45" s="181"/>
-      <c r="F45" s="179"/>
-      <c r="G45" s="181"/>
+      <c r="C45" s="168"/>
+      <c r="D45" s="169"/>
+      <c r="E45" s="170"/>
+      <c r="F45" s="168"/>
+      <c r="G45" s="170"/>
       <c r="H45" s="86"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="87"/>
       <c r="B46" s="88"/>
-      <c r="C46" s="182"/>
-      <c r="D46" s="193"/>
-      <c r="E46" s="183"/>
-      <c r="F46" s="196"/>
-      <c r="G46" s="197"/>
+      <c r="C46" s="171"/>
+      <c r="D46" s="172"/>
+      <c r="E46" s="173"/>
+      <c r="F46" s="174"/>
+      <c r="G46" s="175"/>
       <c r="H46" s="89"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -5329,15 +5329,15 @@
       <c r="B49" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="184" t="s">
+      <c r="C49" s="179" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="194"/>
-      <c r="E49" s="185"/>
-      <c r="F49" s="173" t="s">
+      <c r="D49" s="180"/>
+      <c r="E49" s="181"/>
+      <c r="F49" s="182" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="198"/>
+      <c r="G49" s="183"/>
       <c r="H49" s="49" t="s">
         <v>17</v>
       </c>
@@ -5345,83 +5345,73 @@
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="94"/>
       <c r="B50" s="95"/>
-      <c r="C50" s="199"/>
-      <c r="D50" s="200"/>
-      <c r="E50" s="201"/>
-      <c r="F50" s="199"/>
-      <c r="G50" s="201"/>
+      <c r="C50" s="176"/>
+      <c r="D50" s="177"/>
+      <c r="E50" s="178"/>
+      <c r="F50" s="176"/>
+      <c r="G50" s="178"/>
       <c r="H50" s="96"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="84"/>
       <c r="B51" s="85"/>
-      <c r="C51" s="179"/>
-      <c r="D51" s="180"/>
-      <c r="E51" s="181"/>
-      <c r="F51" s="179"/>
-      <c r="G51" s="181"/>
+      <c r="C51" s="168"/>
+      <c r="D51" s="169"/>
+      <c r="E51" s="170"/>
+      <c r="F51" s="168"/>
+      <c r="G51" s="170"/>
       <c r="H51" s="86"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="84"/>
       <c r="B52" s="85"/>
-      <c r="C52" s="179"/>
-      <c r="D52" s="180"/>
-      <c r="E52" s="181"/>
-      <c r="F52" s="179"/>
-      <c r="G52" s="181"/>
+      <c r="C52" s="168"/>
+      <c r="D52" s="169"/>
+      <c r="E52" s="170"/>
+      <c r="F52" s="168"/>
+      <c r="G52" s="170"/>
       <c r="H52" s="86"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="84"/>
       <c r="B53" s="85"/>
-      <c r="C53" s="179"/>
-      <c r="D53" s="180"/>
-      <c r="E53" s="181"/>
-      <c r="F53" s="179"/>
-      <c r="G53" s="181"/>
+      <c r="C53" s="168"/>
+      <c r="D53" s="169"/>
+      <c r="E53" s="170"/>
+      <c r="F53" s="168"/>
+      <c r="G53" s="170"/>
       <c r="H53" s="86"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="87"/>
       <c r="B54" s="88"/>
-      <c r="C54" s="182"/>
-      <c r="D54" s="193"/>
-      <c r="E54" s="183"/>
-      <c r="F54" s="196"/>
-      <c r="G54" s="197"/>
+      <c r="C54" s="171"/>
+      <c r="D54" s="172"/>
+      <c r="E54" s="173"/>
+      <c r="F54" s="174"/>
+      <c r="G54" s="175"/>
       <c r="H54" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
@@ -5435,24 +5425,34 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5517,10 +5517,10 @@
       <c r="K2" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="205">
+      <c r="L2" s="208">
         <v>45189</v>
       </c>
-      <c r="M2" s="206"/>
+      <c r="M2" s="209"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" customHeight="1">
       <c r="A3" s="118" t="s">
@@ -5542,8 +5542,8 @@
       <c r="K3" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="207"/>
-      <c r="M3" s="206"/>
+      <c r="L3" s="210"/>
+      <c r="M3" s="209"/>
     </row>
     <row r="4" spans="1:13" ht="17.25" customHeight="1">
       <c r="A4" s="115" t="s">
@@ -5563,10 +5563,10 @@
       <c r="K4" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="207" t="s">
+      <c r="L4" s="210" t="s">
         <v>59</v>
       </c>
-      <c r="M4" s="206"/>
+      <c r="M4" s="209"/>
     </row>
     <row r="5" spans="1:13" ht="17.25" customHeight="1">
       <c r="A5" s="119"/>
@@ -5627,14 +5627,14 @@
     <row r="9" spans="1:13" ht="21.75" customHeight="1">
       <c r="A9" s="97"/>
       <c r="F9" s="98"/>
-      <c r="G9" s="208" t="s">
+      <c r="G9" s="211" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="209"/>
-      <c r="I9" s="209"/>
-      <c r="J9" s="209"/>
-      <c r="K9" s="209"/>
-      <c r="L9" s="210"/>
+      <c r="H9" s="212"/>
+      <c r="I9" s="212"/>
+      <c r="J9" s="212"/>
+      <c r="K9" s="212"/>
+      <c r="L9" s="213"/>
       <c r="M9" s="98"/>
     </row>
     <row r="10" spans="1:13" ht="21.75" customHeight="1">
@@ -5656,15 +5656,15 @@
     </row>
     <row r="11" spans="1:13" ht="22.5" customHeight="1">
       <c r="A11" s="97"/>
-      <c r="B11" s="211" t="s">
+      <c r="B11" s="202" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="202" t="s">
+      <c r="C11" s="205" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="203"/>
-      <c r="E11" s="203"/>
-      <c r="F11" s="204"/>
+      <c r="D11" s="206"/>
+      <c r="E11" s="206"/>
+      <c r="F11" s="207"/>
       <c r="G11" s="102" t="s">
         <v>85</v>
       </c>
@@ -5677,13 +5677,13 @@
     </row>
     <row r="12" spans="1:13" ht="22.5" customHeight="1">
       <c r="A12" s="97"/>
-      <c r="B12" s="212"/>
-      <c r="C12" s="202" t="s">
+      <c r="B12" s="203"/>
+      <c r="C12" s="205" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="203"/>
-      <c r="E12" s="203"/>
-      <c r="F12" s="204"/>
+      <c r="D12" s="206"/>
+      <c r="E12" s="206"/>
+      <c r="F12" s="207"/>
       <c r="G12" s="102" t="s">
         <v>87</v>
       </c>
@@ -5696,13 +5696,13 @@
     </row>
     <row r="13" spans="1:13" ht="22.5" customHeight="1">
       <c r="A13" s="97"/>
-      <c r="B13" s="212"/>
-      <c r="C13" s="202" t="s">
+      <c r="B13" s="203"/>
+      <c r="C13" s="205" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="203"/>
-      <c r="E13" s="203"/>
-      <c r="F13" s="204"/>
+      <c r="D13" s="206"/>
+      <c r="E13" s="206"/>
+      <c r="F13" s="207"/>
       <c r="G13" s="102" t="s">
         <v>89</v>
       </c>
@@ -5715,11 +5715,11 @@
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1">
       <c r="A14" s="97"/>
-      <c r="B14" s="212"/>
-      <c r="C14" s="202"/>
-      <c r="D14" s="203"/>
-      <c r="E14" s="203"/>
-      <c r="F14" s="204"/>
+      <c r="B14" s="203"/>
+      <c r="C14" s="205"/>
+      <c r="D14" s="206"/>
+      <c r="E14" s="206"/>
+      <c r="F14" s="207"/>
       <c r="G14" s="102"/>
       <c r="H14" s="102"/>
       <c r="I14" s="102"/>
@@ -5730,11 +5730,11 @@
     </row>
     <row r="15" spans="1:13" ht="22.5" customHeight="1">
       <c r="A15" s="97"/>
-      <c r="B15" s="212"/>
-      <c r="C15" s="202"/>
-      <c r="D15" s="203"/>
-      <c r="E15" s="203"/>
-      <c r="F15" s="204"/>
+      <c r="B15" s="203"/>
+      <c r="C15" s="205"/>
+      <c r="D15" s="206"/>
+      <c r="E15" s="206"/>
+      <c r="F15" s="207"/>
       <c r="G15" s="102"/>
       <c r="H15" s="102"/>
       <c r="I15" s="102"/>
@@ -5745,11 +5745,11 @@
     </row>
     <row r="16" spans="1:13" ht="22.5" customHeight="1">
       <c r="A16" s="97"/>
-      <c r="B16" s="212"/>
-      <c r="C16" s="202"/>
-      <c r="D16" s="203"/>
-      <c r="E16" s="203"/>
-      <c r="F16" s="204"/>
+      <c r="B16" s="203"/>
+      <c r="C16" s="205"/>
+      <c r="D16" s="206"/>
+      <c r="E16" s="206"/>
+      <c r="F16" s="207"/>
       <c r="G16" s="102"/>
       <c r="H16" s="102"/>
       <c r="I16" s="102"/>
@@ -5760,11 +5760,11 @@
     </row>
     <row r="17" spans="1:13" ht="22.5" customHeight="1">
       <c r="A17" s="97"/>
-      <c r="B17" s="212"/>
-      <c r="C17" s="202"/>
-      <c r="D17" s="203"/>
-      <c r="E17" s="203"/>
-      <c r="F17" s="204"/>
+      <c r="B17" s="203"/>
+      <c r="C17" s="205"/>
+      <c r="D17" s="206"/>
+      <c r="E17" s="206"/>
+      <c r="F17" s="207"/>
       <c r="G17" s="102"/>
       <c r="H17" s="102"/>
       <c r="I17" s="102"/>
@@ -5775,11 +5775,11 @@
     </row>
     <row r="18" spans="1:13" ht="22.5" customHeight="1">
       <c r="A18" s="97"/>
-      <c r="B18" s="212"/>
-      <c r="C18" s="202"/>
-      <c r="D18" s="203"/>
-      <c r="E18" s="203"/>
-      <c r="F18" s="204"/>
+      <c r="B18" s="203"/>
+      <c r="C18" s="205"/>
+      <c r="D18" s="206"/>
+      <c r="E18" s="206"/>
+      <c r="F18" s="207"/>
       <c r="G18" s="102"/>
       <c r="H18" s="102"/>
       <c r="I18" s="102"/>
@@ -5790,11 +5790,11 @@
     </row>
     <row r="19" spans="1:13" ht="22.5" customHeight="1">
       <c r="A19" s="97"/>
-      <c r="B19" s="212"/>
-      <c r="C19" s="202"/>
-      <c r="D19" s="203"/>
-      <c r="E19" s="203"/>
-      <c r="F19" s="204"/>
+      <c r="B19" s="203"/>
+      <c r="C19" s="205"/>
+      <c r="D19" s="206"/>
+      <c r="E19" s="206"/>
+      <c r="F19" s="207"/>
       <c r="G19" s="102"/>
       <c r="H19" s="102"/>
       <c r="I19" s="102"/>
@@ -5805,11 +5805,11 @@
     </row>
     <row r="20" spans="1:13" ht="22.5" customHeight="1">
       <c r="A20" s="97"/>
-      <c r="B20" s="212"/>
-      <c r="C20" s="202"/>
-      <c r="D20" s="203"/>
-      <c r="E20" s="203"/>
-      <c r="F20" s="204"/>
+      <c r="B20" s="203"/>
+      <c r="C20" s="205"/>
+      <c r="D20" s="206"/>
+      <c r="E20" s="206"/>
+      <c r="F20" s="207"/>
       <c r="G20" s="102"/>
       <c r="H20" s="102"/>
       <c r="I20" s="102"/>
@@ -5820,11 +5820,11 @@
     </row>
     <row r="21" spans="1:13" ht="22.5" customHeight="1">
       <c r="A21" s="97"/>
-      <c r="B21" s="212"/>
-      <c r="C21" s="202"/>
-      <c r="D21" s="203"/>
-      <c r="E21" s="203"/>
-      <c r="F21" s="204"/>
+      <c r="B21" s="203"/>
+      <c r="C21" s="205"/>
+      <c r="D21" s="206"/>
+      <c r="E21" s="206"/>
+      <c r="F21" s="207"/>
       <c r="G21" s="102"/>
       <c r="H21" s="102"/>
       <c r="I21" s="102"/>
@@ -5835,11 +5835,11 @@
     </row>
     <row r="22" spans="1:13" ht="22.5" customHeight="1">
       <c r="A22" s="97"/>
-      <c r="B22" s="212"/>
-      <c r="C22" s="202"/>
-      <c r="D22" s="203"/>
-      <c r="E22" s="203"/>
-      <c r="F22" s="204"/>
+      <c r="B22" s="203"/>
+      <c r="C22" s="205"/>
+      <c r="D22" s="206"/>
+      <c r="E22" s="206"/>
+      <c r="F22" s="207"/>
       <c r="G22" s="102"/>
       <c r="H22" s="102"/>
       <c r="I22" s="102"/>
@@ -5850,11 +5850,11 @@
     </row>
     <row r="23" spans="1:13" ht="22.5" customHeight="1">
       <c r="A23" s="97"/>
-      <c r="B23" s="212"/>
-      <c r="C23" s="202"/>
-      <c r="D23" s="203"/>
-      <c r="E23" s="203"/>
-      <c r="F23" s="204"/>
+      <c r="B23" s="203"/>
+      <c r="C23" s="205"/>
+      <c r="D23" s="206"/>
+      <c r="E23" s="206"/>
+      <c r="F23" s="207"/>
       <c r="G23" s="102"/>
       <c r="H23" s="102"/>
       <c r="I23" s="102"/>
@@ -5865,11 +5865,11 @@
     </row>
     <row r="24" spans="1:13" ht="22.5" customHeight="1">
       <c r="A24" s="97"/>
-      <c r="B24" s="212"/>
-      <c r="C24" s="202"/>
-      <c r="D24" s="203"/>
-      <c r="E24" s="203"/>
-      <c r="F24" s="204"/>
+      <c r="B24" s="203"/>
+      <c r="C24" s="205"/>
+      <c r="D24" s="206"/>
+      <c r="E24" s="206"/>
+      <c r="F24" s="207"/>
       <c r="G24" s="102"/>
       <c r="H24" s="102"/>
       <c r="I24" s="102"/>
@@ -5880,11 +5880,11 @@
     </row>
     <row r="25" spans="1:13" ht="22.5" customHeight="1">
       <c r="A25" s="97"/>
-      <c r="B25" s="212"/>
-      <c r="C25" s="202"/>
-      <c r="D25" s="203"/>
-      <c r="E25" s="203"/>
-      <c r="F25" s="204"/>
+      <c r="B25" s="203"/>
+      <c r="C25" s="205"/>
+      <c r="D25" s="206"/>
+      <c r="E25" s="206"/>
+      <c r="F25" s="207"/>
       <c r="G25" s="102"/>
       <c r="H25" s="102"/>
       <c r="I25" s="102"/>
@@ -5895,11 +5895,11 @@
     </row>
     <row r="26" spans="1:13" ht="22.5" customHeight="1">
       <c r="A26" s="97"/>
-      <c r="B26" s="212"/>
-      <c r="C26" s="202"/>
-      <c r="D26" s="203"/>
-      <c r="E26" s="203"/>
-      <c r="F26" s="204"/>
+      <c r="B26" s="203"/>
+      <c r="C26" s="205"/>
+      <c r="D26" s="206"/>
+      <c r="E26" s="206"/>
+      <c r="F26" s="207"/>
       <c r="G26" s="102"/>
       <c r="H26" s="102"/>
       <c r="I26" s="102"/>
@@ -5910,11 +5910,11 @@
     </row>
     <row r="27" spans="1:13" ht="22.5" customHeight="1">
       <c r="A27" s="97"/>
-      <c r="B27" s="212"/>
-      <c r="C27" s="202"/>
-      <c r="D27" s="203"/>
-      <c r="E27" s="203"/>
-      <c r="F27" s="204"/>
+      <c r="B27" s="203"/>
+      <c r="C27" s="205"/>
+      <c r="D27" s="206"/>
+      <c r="E27" s="206"/>
+      <c r="F27" s="207"/>
       <c r="G27" s="102"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
@@ -5925,11 +5925,11 @@
     </row>
     <row r="28" spans="1:13" ht="22.5" customHeight="1">
       <c r="A28" s="97"/>
-      <c r="B28" s="212"/>
-      <c r="C28" s="202"/>
-      <c r="D28" s="203"/>
-      <c r="E28" s="203"/>
-      <c r="F28" s="204"/>
+      <c r="B28" s="203"/>
+      <c r="C28" s="205"/>
+      <c r="D28" s="206"/>
+      <c r="E28" s="206"/>
+      <c r="F28" s="207"/>
       <c r="G28" s="102"/>
       <c r="H28" s="102"/>
       <c r="I28" s="102"/>
@@ -5940,11 +5940,11 @@
     </row>
     <row r="29" spans="1:13" ht="22.5" customHeight="1">
       <c r="A29" s="97"/>
-      <c r="B29" s="212"/>
-      <c r="C29" s="202"/>
-      <c r="D29" s="203"/>
-      <c r="E29" s="203"/>
-      <c r="F29" s="204"/>
+      <c r="B29" s="203"/>
+      <c r="C29" s="205"/>
+      <c r="D29" s="206"/>
+      <c r="E29" s="206"/>
+      <c r="F29" s="207"/>
       <c r="G29" s="102"/>
       <c r="H29" s="102"/>
       <c r="I29" s="102"/>
@@ -5955,11 +5955,11 @@
     </row>
     <row r="30" spans="1:13" ht="22.5" customHeight="1">
       <c r="A30" s="97"/>
-      <c r="B30" s="212"/>
-      <c r="C30" s="202"/>
-      <c r="D30" s="203"/>
-      <c r="E30" s="203"/>
-      <c r="F30" s="204"/>
+      <c r="B30" s="203"/>
+      <c r="C30" s="205"/>
+      <c r="D30" s="206"/>
+      <c r="E30" s="206"/>
+      <c r="F30" s="207"/>
       <c r="G30" s="102"/>
       <c r="H30" s="102"/>
       <c r="I30" s="102"/>
@@ -5970,11 +5970,11 @@
     </row>
     <row r="31" spans="1:13" ht="22.5" customHeight="1">
       <c r="A31" s="97"/>
-      <c r="B31" s="212"/>
-      <c r="C31" s="202"/>
-      <c r="D31" s="203"/>
-      <c r="E31" s="203"/>
-      <c r="F31" s="204"/>
+      <c r="B31" s="203"/>
+      <c r="C31" s="205"/>
+      <c r="D31" s="206"/>
+      <c r="E31" s="206"/>
+      <c r="F31" s="207"/>
       <c r="G31" s="102"/>
       <c r="H31" s="102"/>
       <c r="I31" s="102"/>
@@ -5985,11 +5985,11 @@
     </row>
     <row r="32" spans="1:13" ht="23.25" customHeight="1">
       <c r="A32" s="97"/>
-      <c r="B32" s="212"/>
-      <c r="C32" s="202"/>
-      <c r="D32" s="203"/>
-      <c r="E32" s="203"/>
-      <c r="F32" s="204"/>
+      <c r="B32" s="203"/>
+      <c r="C32" s="205"/>
+      <c r="D32" s="206"/>
+      <c r="E32" s="206"/>
+      <c r="F32" s="207"/>
       <c r="G32" s="102"/>
       <c r="H32" s="102"/>
       <c r="I32" s="102"/>
@@ -6000,11 +6000,11 @@
     </row>
     <row r="33" spans="1:13" ht="23.25" customHeight="1">
       <c r="A33" s="97"/>
-      <c r="B33" s="212"/>
-      <c r="C33" s="202"/>
-      <c r="D33" s="203"/>
-      <c r="E33" s="203"/>
-      <c r="F33" s="204"/>
+      <c r="B33" s="203"/>
+      <c r="C33" s="205"/>
+      <c r="D33" s="206"/>
+      <c r="E33" s="206"/>
+      <c r="F33" s="207"/>
       <c r="G33" s="102"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
@@ -6015,11 +6015,11 @@
     </row>
     <row r="34" spans="1:13" ht="23.25" customHeight="1">
       <c r="A34" s="97"/>
-      <c r="B34" s="213"/>
-      <c r="C34" s="202"/>
-      <c r="D34" s="203"/>
-      <c r="E34" s="203"/>
-      <c r="F34" s="204"/>
+      <c r="B34" s="204"/>
+      <c r="C34" s="205"/>
+      <c r="D34" s="206"/>
+      <c r="E34" s="206"/>
+      <c r="F34" s="207"/>
       <c r="G34" s="102"/>
       <c r="H34" s="102"/>
       <c r="I34" s="102"/>
@@ -6049,6 +6049,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="C15:F15"/>
     <mergeCell ref="B11:B34"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="C12:F12"/>
@@ -6065,19 +6078,6 @@
     <mergeCell ref="C32:F32"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="C17:F17"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6086,6 +6086,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D7C9809096204D448E7E27AA876564EA" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="d18fc409809536b8b7818c3506e9437f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="957a1b1a-32e6-4e86-807e-1894b93e11c2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2abd3c77384fed28cbfa08c3c7921415" ns2:_="">
     <xsd:import namespace="957a1b1a-32e6-4e86-807e-1894b93e11c2"/>
@@ -6217,22 +6232,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FD7918C-4008-4E53-BD69-06094197BAA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72DCFA76-BA47-46F7-87FB-B7214F0E338A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E328507C-4764-40B1-B800-B2951A2D6FAA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6248,21 +6265,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72DCFA76-BA47-46F7-87FB-B7214F0E338A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FD7918C-4008-4E53-BD69-06094197BAA9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/03_DB・機能設計書/SD3B後期2班データベース設計書.xlsx
+++ b/03_DB・機能設計書/SD3B後期2班データベース設計書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maron\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1291947-3D4E-44EF-8D50-4F37C8BD4864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F02FA0-0501-4E55-A6ED-FF1CD175D54D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="93">
   <si>
     <t>No</t>
   </si>
@@ -610,6 +610,10 @@
     <rPh sb="0" eb="2">
       <t>タニガワ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>INT(20)</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1965,6 +1969,36 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2013,18 +2047,9 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2052,33 +2077,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -2097,6 +2095,45 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2109,10 +2146,43 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2121,6 +2191,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2130,74 +2203,32 @@
     <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2207,33 +2238,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -3050,21 +3054,21 @@
       <c r="R3" s="12"/>
       <c r="S3" s="12"/>
       <c r="T3" s="12"/>
-      <c r="U3" s="140" t="s">
+      <c r="U3" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="141"/>
-      <c r="W3" s="142">
+      <c r="V3" s="126"/>
+      <c r="W3" s="150">
         <v>45189</v>
       </c>
-      <c r="X3" s="143"/>
-      <c r="Y3" s="143"/>
-      <c r="Z3" s="143"/>
-      <c r="AA3" s="143"/>
-      <c r="AB3" s="143"/>
-      <c r="AC3" s="143"/>
-      <c r="AD3" s="143"/>
-      <c r="AE3" s="141"/>
+      <c r="X3" s="125"/>
+      <c r="Y3" s="125"/>
+      <c r="Z3" s="125"/>
+      <c r="AA3" s="125"/>
+      <c r="AB3" s="125"/>
+      <c r="AC3" s="125"/>
+      <c r="AD3" s="125"/>
+      <c r="AE3" s="126"/>
       <c r="AF3" s="12"/>
     </row>
     <row r="4" spans="1:176" ht="15.75" customHeight="1">
@@ -3176,20 +3180,20 @@
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
       <c r="E7" s="36"/>
-      <c r="F7" s="125" t="s">
+      <c r="F7" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="126"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="126"/>
-      <c r="M7" s="126"/>
-      <c r="N7" s="126"/>
-      <c r="O7" s="126"/>
-      <c r="P7" s="126"/>
-      <c r="Q7" s="127"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="136"/>
+      <c r="L7" s="136"/>
+      <c r="M7" s="136"/>
+      <c r="N7" s="136"/>
+      <c r="O7" s="136"/>
+      <c r="P7" s="136"/>
+      <c r="Q7" s="137"/>
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
       <c r="T7" s="12"/>
@@ -3207,82 +3211,82 @@
     </row>
     <row r="8" spans="1:176" ht="15.75" customHeight="1">
       <c r="A8" s="12"/>
-      <c r="B8" s="128" t="s">
+      <c r="B8" s="138" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="134" t="s">
+      <c r="C8" s="139"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="144" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="135"/>
-      <c r="H8" s="135"/>
-      <c r="I8" s="135"/>
-      <c r="J8" s="135"/>
-      <c r="K8" s="135"/>
-      <c r="L8" s="135"/>
-      <c r="M8" s="135"/>
-      <c r="N8" s="135"/>
-      <c r="O8" s="135"/>
-      <c r="P8" s="135"/>
-      <c r="Q8" s="136"/>
+      <c r="G8" s="145"/>
+      <c r="H8" s="145"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="145"/>
+      <c r="K8" s="145"/>
+      <c r="L8" s="145"/>
+      <c r="M8" s="145"/>
+      <c r="N8" s="145"/>
+      <c r="O8" s="145"/>
+      <c r="P8" s="145"/>
+      <c r="Q8" s="146"/>
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
-      <c r="W8" s="124" t="s">
+      <c r="W8" s="134" t="s">
         <v>38</v>
       </c>
-      <c r="X8" s="124"/>
-      <c r="Y8" s="124"/>
-      <c r="Z8" s="124" t="s">
+      <c r="X8" s="134"/>
+      <c r="Y8" s="134"/>
+      <c r="Z8" s="134" t="s">
         <v>39</v>
       </c>
-      <c r="AA8" s="124"/>
-      <c r="AB8" s="124"/>
-      <c r="AC8" s="124" t="s">
+      <c r="AA8" s="134"/>
+      <c r="AB8" s="134"/>
+      <c r="AC8" s="134" t="s">
         <v>40</v>
       </c>
-      <c r="AD8" s="124"/>
-      <c r="AE8" s="124"/>
+      <c r="AD8" s="134"/>
+      <c r="AE8" s="134"/>
       <c r="AF8" s="12"/>
     </row>
     <row r="9" spans="1:176" ht="15.75" customHeight="1">
       <c r="A9" s="12"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="132"/>
-      <c r="D9" s="132"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="138"/>
-      <c r="H9" s="138"/>
-      <c r="I9" s="138"/>
-      <c r="J9" s="138"/>
-      <c r="K9" s="138"/>
-      <c r="L9" s="138"/>
-      <c r="M9" s="138"/>
-      <c r="N9" s="138"/>
-      <c r="O9" s="138"/>
-      <c r="P9" s="138"/>
-      <c r="Q9" s="139"/>
+      <c r="B9" s="141"/>
+      <c r="C9" s="142"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="143"/>
+      <c r="F9" s="147"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="148"/>
+      <c r="I9" s="148"/>
+      <c r="J9" s="148"/>
+      <c r="K9" s="148"/>
+      <c r="L9" s="148"/>
+      <c r="M9" s="148"/>
+      <c r="N9" s="148"/>
+      <c r="O9" s="148"/>
+      <c r="P9" s="148"/>
+      <c r="Q9" s="149"/>
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
-      <c r="W9" s="144"/>
-      <c r="X9" s="145"/>
-      <c r="Y9" s="146"/>
-      <c r="Z9" s="144"/>
-      <c r="AA9" s="145"/>
-      <c r="AB9" s="146"/>
-      <c r="AC9" s="144" t="s">
+      <c r="W9" s="151"/>
+      <c r="X9" s="152"/>
+      <c r="Y9" s="153"/>
+      <c r="Z9" s="151"/>
+      <c r="AA9" s="152"/>
+      <c r="AB9" s="153"/>
+      <c r="AC9" s="151" t="s">
         <v>91</v>
       </c>
-      <c r="AD9" s="145"/>
-      <c r="AE9" s="146"/>
+      <c r="AD9" s="152"/>
+      <c r="AE9" s="153"/>
       <c r="AF9" s="12"/>
     </row>
     <row r="10" spans="1:176" ht="15.75" customHeight="1">
@@ -3308,15 +3312,15 @@
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
-      <c r="W10" s="147"/>
-      <c r="X10" s="148"/>
-      <c r="Y10" s="149"/>
-      <c r="Z10" s="147"/>
-      <c r="AA10" s="148"/>
-      <c r="AB10" s="149"/>
-      <c r="AC10" s="147"/>
-      <c r="AD10" s="148"/>
-      <c r="AE10" s="149"/>
+      <c r="W10" s="154"/>
+      <c r="X10" s="155"/>
+      <c r="Y10" s="156"/>
+      <c r="Z10" s="154"/>
+      <c r="AA10" s="155"/>
+      <c r="AB10" s="156"/>
+      <c r="AC10" s="154"/>
+      <c r="AD10" s="155"/>
+      <c r="AE10" s="156"/>
       <c r="AF10" s="12"/>
     </row>
     <row r="11" spans="1:176" ht="15.75" customHeight="1">
@@ -3342,15 +3346,15 @@
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
-      <c r="W11" s="147"/>
-      <c r="X11" s="148"/>
-      <c r="Y11" s="149"/>
-      <c r="Z11" s="147"/>
-      <c r="AA11" s="148"/>
-      <c r="AB11" s="149"/>
-      <c r="AC11" s="147"/>
-      <c r="AD11" s="148"/>
-      <c r="AE11" s="149"/>
+      <c r="W11" s="154"/>
+      <c r="X11" s="155"/>
+      <c r="Y11" s="156"/>
+      <c r="Z11" s="154"/>
+      <c r="AA11" s="155"/>
+      <c r="AB11" s="156"/>
+      <c r="AC11" s="154"/>
+      <c r="AD11" s="155"/>
+      <c r="AE11" s="156"/>
       <c r="AF11" s="12"/>
     </row>
     <row r="12" spans="1:176" ht="15.75" customHeight="1">
@@ -3376,15 +3380,15 @@
       <c r="T12" s="16"/>
       <c r="U12" s="16"/>
       <c r="V12" s="16"/>
-      <c r="W12" s="150"/>
-      <c r="X12" s="151"/>
-      <c r="Y12" s="152"/>
-      <c r="Z12" s="150"/>
-      <c r="AA12" s="151"/>
-      <c r="AB12" s="152"/>
-      <c r="AC12" s="150"/>
-      <c r="AD12" s="151"/>
-      <c r="AE12" s="152"/>
+      <c r="W12" s="157"/>
+      <c r="X12" s="158"/>
+      <c r="Y12" s="159"/>
+      <c r="Z12" s="157"/>
+      <c r="AA12" s="158"/>
+      <c r="AB12" s="159"/>
+      <c r="AC12" s="157"/>
+      <c r="AD12" s="158"/>
+      <c r="AE12" s="159"/>
       <c r="AF12" s="12"/>
     </row>
     <row r="13" spans="1:176" ht="15.75" customHeight="1">
@@ -3479,106 +3483,106 @@
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
       <c r="A16" s="12"/>
-      <c r="B16" s="153" t="s">
+      <c r="B16" s="133" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="153"/>
-      <c r="D16" s="153"/>
-      <c r="E16" s="153"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="153"/>
-      <c r="H16" s="153"/>
-      <c r="I16" s="153"/>
-      <c r="J16" s="153"/>
-      <c r="K16" s="153"/>
-      <c r="L16" s="153"/>
-      <c r="M16" s="153"/>
-      <c r="N16" s="153"/>
-      <c r="O16" s="153"/>
-      <c r="P16" s="153"/>
-      <c r="Q16" s="153"/>
-      <c r="R16" s="153"/>
-      <c r="S16" s="153"/>
-      <c r="T16" s="153"/>
-      <c r="U16" s="153"/>
-      <c r="V16" s="153"/>
-      <c r="W16" s="153"/>
-      <c r="X16" s="153"/>
-      <c r="Y16" s="153"/>
-      <c r="Z16" s="153"/>
-      <c r="AA16" s="153"/>
-      <c r="AB16" s="153"/>
-      <c r="AC16" s="153"/>
-      <c r="AD16" s="153"/>
-      <c r="AE16" s="153"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="133"/>
+      <c r="J16" s="133"/>
+      <c r="K16" s="133"/>
+      <c r="L16" s="133"/>
+      <c r="M16" s="133"/>
+      <c r="N16" s="133"/>
+      <c r="O16" s="133"/>
+      <c r="P16" s="133"/>
+      <c r="Q16" s="133"/>
+      <c r="R16" s="133"/>
+      <c r="S16" s="133"/>
+      <c r="T16" s="133"/>
+      <c r="U16" s="133"/>
+      <c r="V16" s="133"/>
+      <c r="W16" s="133"/>
+      <c r="X16" s="133"/>
+      <c r="Y16" s="133"/>
+      <c r="Z16" s="133"/>
+      <c r="AA16" s="133"/>
+      <c r="AB16" s="133"/>
+      <c r="AC16" s="133"/>
+      <c r="AD16" s="133"/>
+      <c r="AE16" s="133"/>
       <c r="AF16" s="12"/>
     </row>
     <row r="17" spans="1:32" ht="15" customHeight="1">
       <c r="A17" s="12"/>
-      <c r="B17" s="153"/>
-      <c r="C17" s="153"/>
-      <c r="D17" s="153"/>
-      <c r="E17" s="153"/>
-      <c r="F17" s="153"/>
-      <c r="G17" s="153"/>
-      <c r="H17" s="153"/>
-      <c r="I17" s="153"/>
-      <c r="J17" s="153"/>
-      <c r="K17" s="153"/>
-      <c r="L17" s="153"/>
-      <c r="M17" s="153"/>
-      <c r="N17" s="153"/>
-      <c r="O17" s="153"/>
-      <c r="P17" s="153"/>
-      <c r="Q17" s="153"/>
-      <c r="R17" s="153"/>
-      <c r="S17" s="153"/>
-      <c r="T17" s="153"/>
-      <c r="U17" s="153"/>
-      <c r="V17" s="153"/>
-      <c r="W17" s="153"/>
-      <c r="X17" s="153"/>
-      <c r="Y17" s="153"/>
-      <c r="Z17" s="153"/>
-      <c r="AA17" s="153"/>
-      <c r="AB17" s="153"/>
-      <c r="AC17" s="153"/>
-      <c r="AD17" s="153"/>
-      <c r="AE17" s="153"/>
+      <c r="B17" s="133"/>
+      <c r="C17" s="133"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="133"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="133"/>
+      <c r="J17" s="133"/>
+      <c r="K17" s="133"/>
+      <c r="L17" s="133"/>
+      <c r="M17" s="133"/>
+      <c r="N17" s="133"/>
+      <c r="O17" s="133"/>
+      <c r="P17" s="133"/>
+      <c r="Q17" s="133"/>
+      <c r="R17" s="133"/>
+      <c r="S17" s="133"/>
+      <c r="T17" s="133"/>
+      <c r="U17" s="133"/>
+      <c r="V17" s="133"/>
+      <c r="W17" s="133"/>
+      <c r="X17" s="133"/>
+      <c r="Y17" s="133"/>
+      <c r="Z17" s="133"/>
+      <c r="AA17" s="133"/>
+      <c r="AB17" s="133"/>
+      <c r="AC17" s="133"/>
+      <c r="AD17" s="133"/>
+      <c r="AE17" s="133"/>
       <c r="AF17" s="12"/>
     </row>
     <row r="18" spans="1:32" ht="15" customHeight="1">
       <c r="A18" s="12"/>
-      <c r="B18" s="153"/>
-      <c r="C18" s="153"/>
-      <c r="D18" s="153"/>
-      <c r="E18" s="153"/>
-      <c r="F18" s="153"/>
-      <c r="G18" s="153"/>
-      <c r="H18" s="153"/>
-      <c r="I18" s="153"/>
-      <c r="J18" s="153"/>
-      <c r="K18" s="153"/>
-      <c r="L18" s="153"/>
-      <c r="M18" s="153"/>
-      <c r="N18" s="153"/>
-      <c r="O18" s="153"/>
-      <c r="P18" s="153"/>
-      <c r="Q18" s="153"/>
-      <c r="R18" s="153"/>
-      <c r="S18" s="153"/>
-      <c r="T18" s="153"/>
-      <c r="U18" s="153"/>
-      <c r="V18" s="153"/>
-      <c r="W18" s="153"/>
-      <c r="X18" s="153"/>
-      <c r="Y18" s="153"/>
-      <c r="Z18" s="153"/>
-      <c r="AA18" s="153"/>
-      <c r="AB18" s="153"/>
-      <c r="AC18" s="153"/>
-      <c r="AD18" s="153"/>
-      <c r="AE18" s="153"/>
+      <c r="B18" s="133"/>
+      <c r="C18" s="133"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="133"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="133"/>
+      <c r="J18" s="133"/>
+      <c r="K18" s="133"/>
+      <c r="L18" s="133"/>
+      <c r="M18" s="133"/>
+      <c r="N18" s="133"/>
+      <c r="O18" s="133"/>
+      <c r="P18" s="133"/>
+      <c r="Q18" s="133"/>
+      <c r="R18" s="133"/>
+      <c r="S18" s="133"/>
+      <c r="T18" s="133"/>
+      <c r="U18" s="133"/>
+      <c r="V18" s="133"/>
+      <c r="W18" s="133"/>
+      <c r="X18" s="133"/>
+      <c r="Y18" s="133"/>
+      <c r="Z18" s="133"/>
+      <c r="AA18" s="133"/>
+      <c r="AB18" s="133"/>
+      <c r="AC18" s="133"/>
+      <c r="AD18" s="133"/>
+      <c r="AE18" s="133"/>
       <c r="AF18" s="12"/>
     </row>
     <row r="19" spans="1:32" ht="15" customHeight="1">
@@ -3717,392 +3721,392 @@
     </row>
     <row r="23" spans="1:32" s="39" customFormat="1" ht="29.25" customHeight="1">
       <c r="A23" s="37"/>
-      <c r="B23" s="140" t="s">
+      <c r="B23" s="124" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="143"/>
-      <c r="D23" s="143"/>
-      <c r="E23" s="141"/>
-      <c r="F23" s="140" t="s">
+      <c r="C23" s="125"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="124" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="143"/>
-      <c r="H23" s="143"/>
-      <c r="I23" s="141"/>
-      <c r="J23" s="140" t="s">
+      <c r="G23" s="125"/>
+      <c r="H23" s="125"/>
+      <c r="I23" s="126"/>
+      <c r="J23" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="K23" s="143"/>
-      <c r="L23" s="143"/>
-      <c r="M23" s="143"/>
-      <c r="N23" s="143"/>
-      <c r="O23" s="143"/>
-      <c r="P23" s="143"/>
-      <c r="Q23" s="143"/>
-      <c r="R23" s="143"/>
-      <c r="S23" s="143"/>
-      <c r="T23" s="143"/>
-      <c r="U23" s="143"/>
-      <c r="V23" s="143"/>
-      <c r="W23" s="143"/>
-      <c r="X23" s="143"/>
-      <c r="Y23" s="143"/>
-      <c r="Z23" s="143"/>
-      <c r="AA23" s="143"/>
-      <c r="AB23" s="141"/>
-      <c r="AC23" s="140" t="s">
+      <c r="K23" s="125"/>
+      <c r="L23" s="125"/>
+      <c r="M23" s="125"/>
+      <c r="N23" s="125"/>
+      <c r="O23" s="125"/>
+      <c r="P23" s="125"/>
+      <c r="Q23" s="125"/>
+      <c r="R23" s="125"/>
+      <c r="S23" s="125"/>
+      <c r="T23" s="125"/>
+      <c r="U23" s="125"/>
+      <c r="V23" s="125"/>
+      <c r="W23" s="125"/>
+      <c r="X23" s="125"/>
+      <c r="Y23" s="125"/>
+      <c r="Z23" s="125"/>
+      <c r="AA23" s="125"/>
+      <c r="AB23" s="126"/>
+      <c r="AC23" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="AD23" s="143"/>
-      <c r="AE23" s="141"/>
+      <c r="AD23" s="125"/>
+      <c r="AE23" s="126"/>
       <c r="AF23" s="37"/>
     </row>
     <row r="24" spans="1:32" ht="29.25" customHeight="1">
       <c r="A24" s="12"/>
-      <c r="B24" s="140" t="s">
+      <c r="B24" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="143"/>
-      <c r="D24" s="143"/>
-      <c r="E24" s="141"/>
-      <c r="F24" s="154">
+      <c r="C24" s="125"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="126"/>
+      <c r="F24" s="127">
         <v>45189</v>
       </c>
-      <c r="G24" s="155"/>
-      <c r="H24" s="155"/>
-      <c r="I24" s="156"/>
-      <c r="J24" s="140" t="s">
+      <c r="G24" s="128"/>
+      <c r="H24" s="128"/>
+      <c r="I24" s="129"/>
+      <c r="J24" s="124" t="s">
         <v>60</v>
       </c>
-      <c r="K24" s="143"/>
-      <c r="L24" s="143"/>
-      <c r="M24" s="143"/>
-      <c r="N24" s="143"/>
-      <c r="O24" s="143"/>
-      <c r="P24" s="143"/>
-      <c r="Q24" s="143"/>
-      <c r="R24" s="143"/>
-      <c r="S24" s="143"/>
-      <c r="T24" s="143"/>
-      <c r="U24" s="143"/>
-      <c r="V24" s="143"/>
-      <c r="W24" s="143"/>
-      <c r="X24" s="143"/>
-      <c r="Y24" s="143"/>
-      <c r="Z24" s="143"/>
-      <c r="AA24" s="143"/>
-      <c r="AB24" s="141"/>
-      <c r="AC24" s="140" t="s">
+      <c r="K24" s="125"/>
+      <c r="L24" s="125"/>
+      <c r="M24" s="125"/>
+      <c r="N24" s="125"/>
+      <c r="O24" s="125"/>
+      <c r="P24" s="125"/>
+      <c r="Q24" s="125"/>
+      <c r="R24" s="125"/>
+      <c r="S24" s="125"/>
+      <c r="T24" s="125"/>
+      <c r="U24" s="125"/>
+      <c r="V24" s="125"/>
+      <c r="W24" s="125"/>
+      <c r="X24" s="125"/>
+      <c r="Y24" s="125"/>
+      <c r="Z24" s="125"/>
+      <c r="AA24" s="125"/>
+      <c r="AB24" s="126"/>
+      <c r="AC24" s="124" t="s">
         <v>91</v>
       </c>
-      <c r="AD24" s="143"/>
-      <c r="AE24" s="141"/>
+      <c r="AD24" s="125"/>
+      <c r="AE24" s="126"/>
       <c r="AF24" s="12"/>
     </row>
     <row r="25" spans="1:32" ht="29.25" customHeight="1">
       <c r="A25" s="12"/>
-      <c r="B25" s="140"/>
-      <c r="C25" s="143"/>
-      <c r="D25" s="143"/>
-      <c r="E25" s="141"/>
-      <c r="F25" s="154"/>
-      <c r="G25" s="155"/>
-      <c r="H25" s="155"/>
-      <c r="I25" s="156"/>
-      <c r="J25" s="157"/>
-      <c r="K25" s="158"/>
-      <c r="L25" s="158"/>
-      <c r="M25" s="158"/>
-      <c r="N25" s="158"/>
-      <c r="O25" s="158"/>
-      <c r="P25" s="158"/>
-      <c r="Q25" s="158"/>
-      <c r="R25" s="158"/>
-      <c r="S25" s="158"/>
-      <c r="T25" s="158"/>
-      <c r="U25" s="158"/>
-      <c r="V25" s="158"/>
-      <c r="W25" s="158"/>
-      <c r="X25" s="158"/>
-      <c r="Y25" s="158"/>
-      <c r="Z25" s="158"/>
-      <c r="AA25" s="158"/>
-      <c r="AB25" s="159"/>
-      <c r="AC25" s="140"/>
-      <c r="AD25" s="143"/>
-      <c r="AE25" s="141"/>
+      <c r="B25" s="124"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="127"/>
+      <c r="G25" s="128"/>
+      <c r="H25" s="128"/>
+      <c r="I25" s="129"/>
+      <c r="J25" s="130"/>
+      <c r="K25" s="131"/>
+      <c r="L25" s="131"/>
+      <c r="M25" s="131"/>
+      <c r="N25" s="131"/>
+      <c r="O25" s="131"/>
+      <c r="P25" s="131"/>
+      <c r="Q25" s="131"/>
+      <c r="R25" s="131"/>
+      <c r="S25" s="131"/>
+      <c r="T25" s="131"/>
+      <c r="U25" s="131"/>
+      <c r="V25" s="131"/>
+      <c r="W25" s="131"/>
+      <c r="X25" s="131"/>
+      <c r="Y25" s="131"/>
+      <c r="Z25" s="131"/>
+      <c r="AA25" s="131"/>
+      <c r="AB25" s="132"/>
+      <c r="AC25" s="124"/>
+      <c r="AD25" s="125"/>
+      <c r="AE25" s="126"/>
       <c r="AF25" s="12"/>
     </row>
     <row r="26" spans="1:32" ht="29.25" customHeight="1">
       <c r="A26" s="12"/>
-      <c r="B26" s="140"/>
-      <c r="C26" s="143"/>
-      <c r="D26" s="143"/>
-      <c r="E26" s="141"/>
-      <c r="F26" s="154"/>
-      <c r="G26" s="155"/>
-      <c r="H26" s="155"/>
-      <c r="I26" s="156"/>
-      <c r="J26" s="157"/>
-      <c r="K26" s="158"/>
-      <c r="L26" s="158"/>
-      <c r="M26" s="158"/>
-      <c r="N26" s="158"/>
-      <c r="O26" s="158"/>
-      <c r="P26" s="158"/>
-      <c r="Q26" s="158"/>
-      <c r="R26" s="158"/>
-      <c r="S26" s="158"/>
-      <c r="T26" s="158"/>
-      <c r="U26" s="158"/>
-      <c r="V26" s="158"/>
-      <c r="W26" s="158"/>
-      <c r="X26" s="158"/>
-      <c r="Y26" s="158"/>
-      <c r="Z26" s="158"/>
-      <c r="AA26" s="158"/>
-      <c r="AB26" s="159"/>
-      <c r="AC26" s="140"/>
-      <c r="AD26" s="143"/>
-      <c r="AE26" s="141"/>
+      <c r="B26" s="124"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="125"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="127"/>
+      <c r="G26" s="128"/>
+      <c r="H26" s="128"/>
+      <c r="I26" s="129"/>
+      <c r="J26" s="130"/>
+      <c r="K26" s="131"/>
+      <c r="L26" s="131"/>
+      <c r="M26" s="131"/>
+      <c r="N26" s="131"/>
+      <c r="O26" s="131"/>
+      <c r="P26" s="131"/>
+      <c r="Q26" s="131"/>
+      <c r="R26" s="131"/>
+      <c r="S26" s="131"/>
+      <c r="T26" s="131"/>
+      <c r="U26" s="131"/>
+      <c r="V26" s="131"/>
+      <c r="W26" s="131"/>
+      <c r="X26" s="131"/>
+      <c r="Y26" s="131"/>
+      <c r="Z26" s="131"/>
+      <c r="AA26" s="131"/>
+      <c r="AB26" s="132"/>
+      <c r="AC26" s="124"/>
+      <c r="AD26" s="125"/>
+      <c r="AE26" s="126"/>
       <c r="AF26" s="12"/>
     </row>
     <row r="27" spans="1:32" ht="29.25" customHeight="1">
       <c r="A27" s="12"/>
-      <c r="B27" s="140"/>
-      <c r="C27" s="143"/>
-      <c r="D27" s="143"/>
-      <c r="E27" s="141"/>
-      <c r="F27" s="154"/>
-      <c r="G27" s="155"/>
-      <c r="H27" s="155"/>
-      <c r="I27" s="156"/>
-      <c r="J27" s="157"/>
-      <c r="K27" s="158"/>
-      <c r="L27" s="158"/>
-      <c r="M27" s="158"/>
-      <c r="N27" s="158"/>
-      <c r="O27" s="158"/>
-      <c r="P27" s="158"/>
-      <c r="Q27" s="158"/>
-      <c r="R27" s="158"/>
-      <c r="S27" s="158"/>
-      <c r="T27" s="158"/>
-      <c r="U27" s="158"/>
-      <c r="V27" s="158"/>
-      <c r="W27" s="158"/>
-      <c r="X27" s="158"/>
-      <c r="Y27" s="158"/>
-      <c r="Z27" s="158"/>
-      <c r="AA27" s="158"/>
-      <c r="AB27" s="159"/>
-      <c r="AC27" s="140"/>
-      <c r="AD27" s="143"/>
-      <c r="AE27" s="141"/>
+      <c r="B27" s="124"/>
+      <c r="C27" s="125"/>
+      <c r="D27" s="125"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="127"/>
+      <c r="G27" s="128"/>
+      <c r="H27" s="128"/>
+      <c r="I27" s="129"/>
+      <c r="J27" s="130"/>
+      <c r="K27" s="131"/>
+      <c r="L27" s="131"/>
+      <c r="M27" s="131"/>
+      <c r="N27" s="131"/>
+      <c r="O27" s="131"/>
+      <c r="P27" s="131"/>
+      <c r="Q27" s="131"/>
+      <c r="R27" s="131"/>
+      <c r="S27" s="131"/>
+      <c r="T27" s="131"/>
+      <c r="U27" s="131"/>
+      <c r="V27" s="131"/>
+      <c r="W27" s="131"/>
+      <c r="X27" s="131"/>
+      <c r="Y27" s="131"/>
+      <c r="Z27" s="131"/>
+      <c r="AA27" s="131"/>
+      <c r="AB27" s="132"/>
+      <c r="AC27" s="124"/>
+      <c r="AD27" s="125"/>
+      <c r="AE27" s="126"/>
       <c r="AF27" s="12"/>
     </row>
     <row r="28" spans="1:32" ht="29.25" customHeight="1">
       <c r="A28" s="12"/>
-      <c r="B28" s="140"/>
-      <c r="C28" s="143"/>
-      <c r="D28" s="143"/>
-      <c r="E28" s="141"/>
-      <c r="F28" s="154"/>
-      <c r="G28" s="155"/>
-      <c r="H28" s="155"/>
-      <c r="I28" s="156"/>
-      <c r="J28" s="157"/>
-      <c r="K28" s="158"/>
-      <c r="L28" s="158"/>
-      <c r="M28" s="158"/>
-      <c r="N28" s="158"/>
-      <c r="O28" s="158"/>
-      <c r="P28" s="158"/>
-      <c r="Q28" s="158"/>
-      <c r="R28" s="158"/>
-      <c r="S28" s="158"/>
-      <c r="T28" s="158"/>
-      <c r="U28" s="158"/>
-      <c r="V28" s="158"/>
-      <c r="W28" s="158"/>
-      <c r="X28" s="158"/>
-      <c r="Y28" s="158"/>
-      <c r="Z28" s="158"/>
-      <c r="AA28" s="158"/>
-      <c r="AB28" s="159"/>
-      <c r="AC28" s="140"/>
-      <c r="AD28" s="143"/>
-      <c r="AE28" s="141"/>
+      <c r="B28" s="124"/>
+      <c r="C28" s="125"/>
+      <c r="D28" s="125"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="127"/>
+      <c r="G28" s="128"/>
+      <c r="H28" s="128"/>
+      <c r="I28" s="129"/>
+      <c r="J28" s="130"/>
+      <c r="K28" s="131"/>
+      <c r="L28" s="131"/>
+      <c r="M28" s="131"/>
+      <c r="N28" s="131"/>
+      <c r="O28" s="131"/>
+      <c r="P28" s="131"/>
+      <c r="Q28" s="131"/>
+      <c r="R28" s="131"/>
+      <c r="S28" s="131"/>
+      <c r="T28" s="131"/>
+      <c r="U28" s="131"/>
+      <c r="V28" s="131"/>
+      <c r="W28" s="131"/>
+      <c r="X28" s="131"/>
+      <c r="Y28" s="131"/>
+      <c r="Z28" s="131"/>
+      <c r="AA28" s="131"/>
+      <c r="AB28" s="132"/>
+      <c r="AC28" s="124"/>
+      <c r="AD28" s="125"/>
+      <c r="AE28" s="126"/>
       <c r="AF28" s="12"/>
     </row>
     <row r="29" spans="1:32" ht="29.25" customHeight="1">
       <c r="A29" s="12"/>
-      <c r="B29" s="140"/>
-      <c r="C29" s="143"/>
-      <c r="D29" s="143"/>
-      <c r="E29" s="141"/>
-      <c r="F29" s="154"/>
-      <c r="G29" s="155"/>
-      <c r="H29" s="155"/>
-      <c r="I29" s="156"/>
-      <c r="J29" s="157"/>
-      <c r="K29" s="158"/>
-      <c r="L29" s="158"/>
-      <c r="M29" s="158"/>
-      <c r="N29" s="158"/>
-      <c r="O29" s="158"/>
-      <c r="P29" s="158"/>
-      <c r="Q29" s="158"/>
-      <c r="R29" s="158"/>
-      <c r="S29" s="158"/>
-      <c r="T29" s="158"/>
-      <c r="U29" s="158"/>
-      <c r="V29" s="158"/>
-      <c r="W29" s="158"/>
-      <c r="X29" s="158"/>
-      <c r="Y29" s="158"/>
-      <c r="Z29" s="158"/>
-      <c r="AA29" s="158"/>
-      <c r="AB29" s="159"/>
-      <c r="AC29" s="140"/>
-      <c r="AD29" s="143"/>
-      <c r="AE29" s="141"/>
+      <c r="B29" s="124"/>
+      <c r="C29" s="125"/>
+      <c r="D29" s="125"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="127"/>
+      <c r="G29" s="128"/>
+      <c r="H29" s="128"/>
+      <c r="I29" s="129"/>
+      <c r="J29" s="130"/>
+      <c r="K29" s="131"/>
+      <c r="L29" s="131"/>
+      <c r="M29" s="131"/>
+      <c r="N29" s="131"/>
+      <c r="O29" s="131"/>
+      <c r="P29" s="131"/>
+      <c r="Q29" s="131"/>
+      <c r="R29" s="131"/>
+      <c r="S29" s="131"/>
+      <c r="T29" s="131"/>
+      <c r="U29" s="131"/>
+      <c r="V29" s="131"/>
+      <c r="W29" s="131"/>
+      <c r="X29" s="131"/>
+      <c r="Y29" s="131"/>
+      <c r="Z29" s="131"/>
+      <c r="AA29" s="131"/>
+      <c r="AB29" s="132"/>
+      <c r="AC29" s="124"/>
+      <c r="AD29" s="125"/>
+      <c r="AE29" s="126"/>
       <c r="AF29" s="12"/>
     </row>
     <row r="30" spans="1:32" ht="29.25" customHeight="1">
       <c r="A30" s="12"/>
-      <c r="B30" s="140"/>
-      <c r="C30" s="143"/>
-      <c r="D30" s="143"/>
-      <c r="E30" s="141"/>
-      <c r="F30" s="154"/>
-      <c r="G30" s="155"/>
-      <c r="H30" s="155"/>
-      <c r="I30" s="156"/>
-      <c r="J30" s="157"/>
-      <c r="K30" s="158"/>
-      <c r="L30" s="158"/>
-      <c r="M30" s="158"/>
-      <c r="N30" s="158"/>
-      <c r="O30" s="158"/>
-      <c r="P30" s="158"/>
-      <c r="Q30" s="158"/>
-      <c r="R30" s="158"/>
-      <c r="S30" s="158"/>
-      <c r="T30" s="158"/>
-      <c r="U30" s="158"/>
-      <c r="V30" s="158"/>
-      <c r="W30" s="158"/>
-      <c r="X30" s="158"/>
-      <c r="Y30" s="158"/>
-      <c r="Z30" s="158"/>
-      <c r="AA30" s="158"/>
-      <c r="AB30" s="159"/>
-      <c r="AC30" s="140"/>
-      <c r="AD30" s="143"/>
-      <c r="AE30" s="141"/>
+      <c r="B30" s="124"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="126"/>
+      <c r="F30" s="127"/>
+      <c r="G30" s="128"/>
+      <c r="H30" s="128"/>
+      <c r="I30" s="129"/>
+      <c r="J30" s="130"/>
+      <c r="K30" s="131"/>
+      <c r="L30" s="131"/>
+      <c r="M30" s="131"/>
+      <c r="N30" s="131"/>
+      <c r="O30" s="131"/>
+      <c r="P30" s="131"/>
+      <c r="Q30" s="131"/>
+      <c r="R30" s="131"/>
+      <c r="S30" s="131"/>
+      <c r="T30" s="131"/>
+      <c r="U30" s="131"/>
+      <c r="V30" s="131"/>
+      <c r="W30" s="131"/>
+      <c r="X30" s="131"/>
+      <c r="Y30" s="131"/>
+      <c r="Z30" s="131"/>
+      <c r="AA30" s="131"/>
+      <c r="AB30" s="132"/>
+      <c r="AC30" s="124"/>
+      <c r="AD30" s="125"/>
+      <c r="AE30" s="126"/>
       <c r="AF30" s="12"/>
     </row>
     <row r="31" spans="1:32" ht="29.25" customHeight="1">
       <c r="A31" s="12"/>
-      <c r="B31" s="140"/>
-      <c r="C31" s="143"/>
-      <c r="D31" s="143"/>
-      <c r="E31" s="141"/>
-      <c r="F31" s="154"/>
-      <c r="G31" s="155"/>
-      <c r="H31" s="155"/>
-      <c r="I31" s="156"/>
-      <c r="J31" s="157"/>
-      <c r="K31" s="158"/>
-      <c r="L31" s="158"/>
-      <c r="M31" s="158"/>
-      <c r="N31" s="158"/>
-      <c r="O31" s="158"/>
-      <c r="P31" s="158"/>
-      <c r="Q31" s="158"/>
-      <c r="R31" s="158"/>
-      <c r="S31" s="158"/>
-      <c r="T31" s="158"/>
-      <c r="U31" s="158"/>
-      <c r="V31" s="158"/>
-      <c r="W31" s="158"/>
-      <c r="X31" s="158"/>
-      <c r="Y31" s="158"/>
-      <c r="Z31" s="158"/>
-      <c r="AA31" s="158"/>
-      <c r="AB31" s="159"/>
-      <c r="AC31" s="140"/>
-      <c r="AD31" s="143"/>
-      <c r="AE31" s="141"/>
+      <c r="B31" s="124"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="126"/>
+      <c r="F31" s="127"/>
+      <c r="G31" s="128"/>
+      <c r="H31" s="128"/>
+      <c r="I31" s="129"/>
+      <c r="J31" s="130"/>
+      <c r="K31" s="131"/>
+      <c r="L31" s="131"/>
+      <c r="M31" s="131"/>
+      <c r="N31" s="131"/>
+      <c r="O31" s="131"/>
+      <c r="P31" s="131"/>
+      <c r="Q31" s="131"/>
+      <c r="R31" s="131"/>
+      <c r="S31" s="131"/>
+      <c r="T31" s="131"/>
+      <c r="U31" s="131"/>
+      <c r="V31" s="131"/>
+      <c r="W31" s="131"/>
+      <c r="X31" s="131"/>
+      <c r="Y31" s="131"/>
+      <c r="Z31" s="131"/>
+      <c r="AA31" s="131"/>
+      <c r="AB31" s="132"/>
+      <c r="AC31" s="124"/>
+      <c r="AD31" s="125"/>
+      <c r="AE31" s="126"/>
       <c r="AF31" s="12"/>
     </row>
     <row r="32" spans="1:32" ht="29.25" customHeight="1">
       <c r="A32" s="12"/>
-      <c r="B32" s="140"/>
-      <c r="C32" s="143"/>
-      <c r="D32" s="143"/>
-      <c r="E32" s="141"/>
-      <c r="F32" s="154"/>
-      <c r="G32" s="155"/>
-      <c r="H32" s="155"/>
-      <c r="I32" s="156"/>
-      <c r="J32" s="157"/>
-      <c r="K32" s="158"/>
-      <c r="L32" s="158"/>
-      <c r="M32" s="158"/>
-      <c r="N32" s="158"/>
-      <c r="O32" s="158"/>
-      <c r="P32" s="158"/>
-      <c r="Q32" s="158"/>
-      <c r="R32" s="158"/>
-      <c r="S32" s="158"/>
-      <c r="T32" s="158"/>
-      <c r="U32" s="158"/>
-      <c r="V32" s="158"/>
-      <c r="W32" s="158"/>
-      <c r="X32" s="158"/>
-      <c r="Y32" s="158"/>
-      <c r="Z32" s="158"/>
-      <c r="AA32" s="158"/>
-      <c r="AB32" s="159"/>
-      <c r="AC32" s="140"/>
-      <c r="AD32" s="143"/>
-      <c r="AE32" s="141"/>
+      <c r="B32" s="124"/>
+      <c r="C32" s="125"/>
+      <c r="D32" s="125"/>
+      <c r="E32" s="126"/>
+      <c r="F32" s="127"/>
+      <c r="G32" s="128"/>
+      <c r="H32" s="128"/>
+      <c r="I32" s="129"/>
+      <c r="J32" s="130"/>
+      <c r="K32" s="131"/>
+      <c r="L32" s="131"/>
+      <c r="M32" s="131"/>
+      <c r="N32" s="131"/>
+      <c r="O32" s="131"/>
+      <c r="P32" s="131"/>
+      <c r="Q32" s="131"/>
+      <c r="R32" s="131"/>
+      <c r="S32" s="131"/>
+      <c r="T32" s="131"/>
+      <c r="U32" s="131"/>
+      <c r="V32" s="131"/>
+      <c r="W32" s="131"/>
+      <c r="X32" s="131"/>
+      <c r="Y32" s="131"/>
+      <c r="Z32" s="131"/>
+      <c r="AA32" s="131"/>
+      <c r="AB32" s="132"/>
+      <c r="AC32" s="124"/>
+      <c r="AD32" s="125"/>
+      <c r="AE32" s="126"/>
       <c r="AF32" s="12"/>
     </row>
     <row r="33" spans="1:32" ht="29.25" customHeight="1">
       <c r="A33" s="12"/>
-      <c r="B33" s="140"/>
-      <c r="C33" s="143"/>
-      <c r="D33" s="143"/>
-      <c r="E33" s="141"/>
-      <c r="F33" s="154"/>
-      <c r="G33" s="155"/>
-      <c r="H33" s="155"/>
-      <c r="I33" s="156"/>
-      <c r="J33" s="157"/>
-      <c r="K33" s="158"/>
-      <c r="L33" s="158"/>
-      <c r="M33" s="158"/>
-      <c r="N33" s="158"/>
-      <c r="O33" s="158"/>
-      <c r="P33" s="158"/>
-      <c r="Q33" s="158"/>
-      <c r="R33" s="158"/>
-      <c r="S33" s="158"/>
-      <c r="T33" s="158"/>
-      <c r="U33" s="158"/>
-      <c r="V33" s="158"/>
-      <c r="W33" s="158"/>
-      <c r="X33" s="158"/>
-      <c r="Y33" s="158"/>
-      <c r="Z33" s="158"/>
-      <c r="AA33" s="158"/>
-      <c r="AB33" s="159"/>
-      <c r="AC33" s="140"/>
-      <c r="AD33" s="143"/>
-      <c r="AE33" s="141"/>
+      <c r="B33" s="124"/>
+      <c r="C33" s="125"/>
+      <c r="D33" s="125"/>
+      <c r="E33" s="126"/>
+      <c r="F33" s="127"/>
+      <c r="G33" s="128"/>
+      <c r="H33" s="128"/>
+      <c r="I33" s="129"/>
+      <c r="J33" s="130"/>
+      <c r="K33" s="131"/>
+      <c r="L33" s="131"/>
+      <c r="M33" s="131"/>
+      <c r="N33" s="131"/>
+      <c r="O33" s="131"/>
+      <c r="P33" s="131"/>
+      <c r="Q33" s="131"/>
+      <c r="R33" s="131"/>
+      <c r="S33" s="131"/>
+      <c r="T33" s="131"/>
+      <c r="U33" s="131"/>
+      <c r="V33" s="131"/>
+      <c r="W33" s="131"/>
+      <c r="X33" s="131"/>
+      <c r="Y33" s="131"/>
+      <c r="Z33" s="131"/>
+      <c r="AA33" s="131"/>
+      <c r="AB33" s="132"/>
+      <c r="AC33" s="124"/>
+      <c r="AD33" s="125"/>
+      <c r="AE33" s="126"/>
       <c r="AF33" s="12"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
@@ -4140,51 +4144,6 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B16:AE18"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
     <mergeCell ref="AC8:AE8"/>
     <mergeCell ref="F7:Q7"/>
     <mergeCell ref="B8:E9"/>
@@ -4196,6 +4155,51 @@
     <mergeCell ref="AC9:AE12"/>
     <mergeCell ref="Z9:AB12"/>
     <mergeCell ref="W9:Y12"/>
+    <mergeCell ref="B16:AE18"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -4219,7 +4223,7 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -4245,10 +4249,10 @@
       <c r="F1" s="108"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="166" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="161"/>
+      <c r="B2" s="167"/>
       <c r="C2" s="30" t="s">
         <v>57</v>
       </c>
@@ -4261,10 +4265,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1">
-      <c r="A3" s="160" t="s">
+      <c r="A3" s="166" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="161"/>
+      <c r="B3" s="167"/>
       <c r="C3" s="30" t="s">
         <v>61</v>
       </c>
@@ -4277,10 +4281,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1">
-      <c r="A4" s="160" t="s">
+      <c r="A4" s="166" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="161"/>
+      <c r="B4" s="167"/>
       <c r="C4" s="30" t="s">
         <v>62</v>
       </c>
@@ -4293,10 +4297,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1">
-      <c r="A5" s="160" t="s">
+      <c r="A5" s="166" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="161"/>
+      <c r="B5" s="167"/>
       <c r="C5" s="30" t="s">
         <v>63</v>
       </c>
@@ -4307,10 +4311,10 @@
       <c r="F5" s="91"/>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1">
-      <c r="A6" s="160" t="s">
+      <c r="A6" s="166" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="161"/>
+      <c r="B6" s="167"/>
       <c r="C6" s="30" t="s">
         <v>64</v>
       </c>
@@ -4351,10 +4355,10 @@
       <c r="D9" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="166" t="s">
+      <c r="E9" s="164" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="167"/>
+      <c r="F9" s="165"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1">
       <c r="A10" s="59">
@@ -4369,10 +4373,10 @@
       <c r="D10" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="162" t="s">
+      <c r="E10" s="160" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="163"/>
+      <c r="F10" s="161"/>
     </row>
     <row r="11" spans="1:6" ht="33.75" customHeight="1">
       <c r="A11" s="59">
@@ -4381,8 +4385,8 @@
       <c r="B11" s="60"/>
       <c r="C11" s="60"/>
       <c r="D11" s="60"/>
-      <c r="E11" s="162"/>
-      <c r="F11" s="163"/>
+      <c r="E11" s="160"/>
+      <c r="F11" s="161"/>
     </row>
     <row r="12" spans="1:6" ht="33.75" customHeight="1">
       <c r="A12" s="59">
@@ -4391,8 +4395,8 @@
       <c r="B12" s="60"/>
       <c r="C12" s="60"/>
       <c r="D12" s="60"/>
-      <c r="E12" s="162"/>
-      <c r="F12" s="163"/>
+      <c r="E12" s="160"/>
+      <c r="F12" s="161"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1">
       <c r="A13" s="59">
@@ -4401,8 +4405,8 @@
       <c r="B13" s="60"/>
       <c r="C13" s="60"/>
       <c r="D13" s="60"/>
-      <c r="E13" s="162"/>
-      <c r="F13" s="163"/>
+      <c r="E13" s="160"/>
+      <c r="F13" s="161"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1">
       <c r="A14" s="59">
@@ -4411,32 +4415,32 @@
       <c r="B14" s="60"/>
       <c r="C14" s="60"/>
       <c r="D14" s="60"/>
-      <c r="E14" s="162"/>
-      <c r="F14" s="163"/>
+      <c r="E14" s="160"/>
+      <c r="F14" s="161"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="164"/>
-      <c r="F15" s="165"/>
+      <c r="E15" s="162"/>
+      <c r="F15" s="163"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="164"/>
-      <c r="F16" s="165"/>
+      <c r="E16" s="162"/>
+      <c r="F16" s="163"/>
     </row>
     <row r="17" spans="1:6" ht="33.75" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="164"/>
-      <c r="F17" s="165"/>
+      <c r="E17" s="162"/>
+      <c r="F17" s="163"/>
     </row>
     <row r="18" spans="1:6" ht="29.25" customHeight="1">
       <c r="A18" s="29" t="s">
@@ -4678,6 +4682,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
@@ -4687,11 +4696,6 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4712,8 +4716,8 @@
   </sheetPr>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:H7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13"/>
@@ -4811,42 +4815,42 @@
         <v>47</v>
       </c>
       <c r="B6" s="45"/>
-      <c r="C6" s="196" t="s">
+      <c r="C6" s="170" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="197"/>
-      <c r="E6" s="197"/>
-      <c r="F6" s="197"/>
-      <c r="G6" s="197"/>
-      <c r="H6" s="198"/>
+      <c r="D6" s="171"/>
+      <c r="E6" s="171"/>
+      <c r="F6" s="171"/>
+      <c r="G6" s="171"/>
+      <c r="H6" s="172"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="40" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="45"/>
-      <c r="C7" s="196" t="s">
+      <c r="C7" s="170" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="197"/>
-      <c r="E7" s="197"/>
-      <c r="F7" s="197"/>
-      <c r="G7" s="197"/>
-      <c r="H7" s="198"/>
+      <c r="D7" s="171"/>
+      <c r="E7" s="171"/>
+      <c r="F7" s="171"/>
+      <c r="G7" s="171"/>
+      <c r="H7" s="172"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="40" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="45"/>
-      <c r="C8" s="196" t="s">
+      <c r="C8" s="170" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="197"/>
-      <c r="E8" s="197"/>
-      <c r="F8" s="197"/>
-      <c r="G8" s="197"/>
-      <c r="H8" s="198"/>
+      <c r="D8" s="171"/>
+      <c r="E8" s="171"/>
+      <c r="F8" s="171"/>
+      <c r="G8" s="171"/>
+      <c r="H8" s="172"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="46" t="s">
@@ -4867,10 +4871,10 @@
       <c r="B10" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="182" t="s">
+      <c r="C10" s="173" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="199"/>
+      <c r="D10" s="174"/>
       <c r="E10" s="48" t="s">
         <v>1</v>
       </c>
@@ -4891,10 +4895,10 @@
       <c r="B11" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="200" t="s">
+      <c r="C11" s="175" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="201"/>
+      <c r="D11" s="176"/>
       <c r="E11" s="63" t="s">
         <v>73</v>
       </c>
@@ -4913,10 +4917,10 @@
       <c r="B12" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="192" t="s">
+      <c r="C12" s="168" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="193"/>
+      <c r="D12" s="169"/>
       <c r="E12" s="68" t="s">
         <v>74</v>
       </c>
@@ -4933,12 +4937,12 @@
       <c r="B13" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="192" t="s">
+      <c r="C13" s="168" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="193"/>
+      <c r="D13" s="169"/>
       <c r="E13" s="68" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="F13" s="68" t="s">
         <v>75</v>
@@ -4949,8 +4953,8 @@
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="71"/>
       <c r="B14" s="72"/>
-      <c r="C14" s="192"/>
-      <c r="D14" s="193"/>
+      <c r="C14" s="168"/>
+      <c r="D14" s="169"/>
       <c r="E14" s="73"/>
       <c r="F14" s="73"/>
       <c r="G14" s="74"/>
@@ -4959,8 +4963,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="71"/>
       <c r="B15" s="72"/>
-      <c r="C15" s="192"/>
-      <c r="D15" s="193"/>
+      <c r="C15" s="168"/>
+      <c r="D15" s="169"/>
       <c r="E15" s="73"/>
       <c r="F15" s="73"/>
       <c r="G15" s="74"/>
@@ -4969,8 +4973,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="71"/>
       <c r="B16" s="72"/>
-      <c r="C16" s="192"/>
-      <c r="D16" s="193"/>
+      <c r="C16" s="168"/>
+      <c r="D16" s="169"/>
       <c r="E16" s="73"/>
       <c r="F16" s="73"/>
       <c r="G16" s="74"/>
@@ -4979,8 +4983,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="71"/>
       <c r="B17" s="72"/>
-      <c r="C17" s="192"/>
-      <c r="D17" s="193"/>
+      <c r="C17" s="168"/>
+      <c r="D17" s="169"/>
       <c r="E17" s="73"/>
       <c r="F17" s="73"/>
       <c r="G17" s="74"/>
@@ -4989,8 +4993,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="71"/>
       <c r="B18" s="72"/>
-      <c r="C18" s="192"/>
-      <c r="D18" s="193"/>
+      <c r="C18" s="168"/>
+      <c r="D18" s="169"/>
       <c r="E18" s="73"/>
       <c r="F18" s="73"/>
       <c r="G18" s="74"/>
@@ -4999,8 +5003,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="192"/>
-      <c r="D19" s="193"/>
+      <c r="C19" s="168"/>
+      <c r="D19" s="169"/>
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
       <c r="G19" s="74"/>
@@ -5009,8 +5013,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="72"/>
-      <c r="C20" s="192"/>
-      <c r="D20" s="193"/>
+      <c r="C20" s="168"/>
+      <c r="D20" s="169"/>
       <c r="E20" s="73"/>
       <c r="F20" s="73"/>
       <c r="G20" s="74"/>
@@ -5019,8 +5023,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="192"/>
-      <c r="D21" s="193"/>
+      <c r="C21" s="168"/>
+      <c r="D21" s="169"/>
       <c r="E21" s="73"/>
       <c r="F21" s="73"/>
       <c r="G21" s="74"/>
@@ -5029,8 +5033,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="192"/>
-      <c r="D22" s="193"/>
+      <c r="C22" s="168"/>
+      <c r="D22" s="169"/>
       <c r="E22" s="73"/>
       <c r="F22" s="73"/>
       <c r="G22" s="74"/>
@@ -5039,8 +5043,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="192"/>
-      <c r="D23" s="193"/>
+      <c r="C23" s="168"/>
+      <c r="D23" s="169"/>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
       <c r="G23" s="74"/>
@@ -5049,8 +5053,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="192"/>
-      <c r="D24" s="193"/>
+      <c r="C24" s="168"/>
+      <c r="D24" s="169"/>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
       <c r="G24" s="74"/>
@@ -5059,8 +5063,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="71"/>
       <c r="B25" s="72"/>
-      <c r="C25" s="192"/>
-      <c r="D25" s="193"/>
+      <c r="C25" s="168"/>
+      <c r="D25" s="169"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="74"/>
@@ -5069,8 +5073,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
-      <c r="C26" s="192"/>
-      <c r="D26" s="193"/>
+      <c r="C26" s="168"/>
+      <c r="D26" s="169"/>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
       <c r="G26" s="74"/>
@@ -5079,8 +5083,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="71"/>
       <c r="B27" s="72"/>
-      <c r="C27" s="192"/>
-      <c r="D27" s="193"/>
+      <c r="C27" s="168"/>
+      <c r="D27" s="169"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
       <c r="G27" s="74"/>
@@ -5089,8 +5093,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="192"/>
-      <c r="D28" s="193"/>
+      <c r="C28" s="168"/>
+      <c r="D28" s="169"/>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
       <c r="G28" s="74"/>
@@ -5099,8 +5103,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="192"/>
-      <c r="D29" s="193"/>
+      <c r="C29" s="168"/>
+      <c r="D29" s="169"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
       <c r="G29" s="74"/>
@@ -5109,8 +5113,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="76"/>
       <c r="B30" s="77"/>
-      <c r="C30" s="171"/>
-      <c r="D30" s="173"/>
+      <c r="C30" s="182"/>
+      <c r="D30" s="183"/>
       <c r="E30" s="78"/>
       <c r="F30" s="78"/>
       <c r="G30" s="79"/>
@@ -5142,10 +5146,10 @@
       <c r="A33" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="179" t="s">
+      <c r="B33" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="181"/>
+      <c r="C33" s="185"/>
       <c r="D33" s="54" t="s">
         <v>9</v>
       </c>
@@ -5160,51 +5164,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="61"/>
-      <c r="B34" s="194"/>
-      <c r="C34" s="195"/>
-      <c r="D34" s="184"/>
-      <c r="E34" s="185"/>
-      <c r="F34" s="186"/>
+      <c r="B34" s="186"/>
+      <c r="C34" s="187"/>
+      <c r="D34" s="188"/>
+      <c r="E34" s="189"/>
+      <c r="F34" s="190"/>
       <c r="G34" s="64"/>
       <c r="H34" s="65"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="66"/>
-      <c r="B35" s="187"/>
-      <c r="C35" s="188"/>
-      <c r="D35" s="168"/>
-      <c r="E35" s="169"/>
-      <c r="F35" s="170"/>
+      <c r="B35" s="177"/>
+      <c r="C35" s="178"/>
+      <c r="D35" s="179"/>
+      <c r="E35" s="180"/>
+      <c r="F35" s="181"/>
       <c r="G35" s="69"/>
       <c r="H35" s="70"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="66"/>
-      <c r="B36" s="187"/>
-      <c r="C36" s="188"/>
-      <c r="D36" s="168"/>
-      <c r="E36" s="169"/>
-      <c r="F36" s="170"/>
+      <c r="B36" s="177"/>
+      <c r="C36" s="178"/>
+      <c r="D36" s="179"/>
+      <c r="E36" s="180"/>
+      <c r="F36" s="181"/>
       <c r="G36" s="69"/>
       <c r="H36" s="70"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="187"/>
-      <c r="C37" s="188"/>
-      <c r="D37" s="168"/>
-      <c r="E37" s="169"/>
-      <c r="F37" s="170"/>
+      <c r="B37" s="177"/>
+      <c r="C37" s="178"/>
+      <c r="D37" s="179"/>
+      <c r="E37" s="180"/>
+      <c r="F37" s="181"/>
       <c r="G37" s="69"/>
       <c r="H37" s="70"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="76"/>
-      <c r="B38" s="189"/>
-      <c r="C38" s="190"/>
-      <c r="D38" s="171"/>
-      <c r="E38" s="172"/>
-      <c r="F38" s="173"/>
+      <c r="B38" s="191"/>
+      <c r="C38" s="192"/>
+      <c r="D38" s="182"/>
+      <c r="E38" s="193"/>
+      <c r="F38" s="183"/>
       <c r="G38" s="79"/>
       <c r="H38" s="80"/>
     </row>
@@ -5237,15 +5241,15 @@
       <c r="B41" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="179" t="s">
+      <c r="C41" s="184" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="180"/>
-      <c r="E41" s="181"/>
-      <c r="F41" s="179" t="s">
+      <c r="D41" s="194"/>
+      <c r="E41" s="185"/>
+      <c r="F41" s="184" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="191"/>
+      <c r="G41" s="195"/>
       <c r="H41" s="58" t="s">
         <v>14</v>
       </c>
@@ -5253,51 +5257,51 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="81"/>
       <c r="B42" s="82"/>
-      <c r="C42" s="184"/>
-      <c r="D42" s="185"/>
-      <c r="E42" s="186"/>
-      <c r="F42" s="184"/>
-      <c r="G42" s="186"/>
+      <c r="C42" s="188"/>
+      <c r="D42" s="189"/>
+      <c r="E42" s="190"/>
+      <c r="F42" s="188"/>
+      <c r="G42" s="190"/>
       <c r="H42" s="83"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="84"/>
       <c r="B43" s="85"/>
-      <c r="C43" s="168"/>
-      <c r="D43" s="169"/>
-      <c r="E43" s="170"/>
-      <c r="F43" s="168"/>
-      <c r="G43" s="170"/>
+      <c r="C43" s="179"/>
+      <c r="D43" s="180"/>
+      <c r="E43" s="181"/>
+      <c r="F43" s="179"/>
+      <c r="G43" s="181"/>
       <c r="H43" s="86"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="84"/>
       <c r="B44" s="85"/>
-      <c r="C44" s="168"/>
-      <c r="D44" s="169"/>
-      <c r="E44" s="170"/>
-      <c r="F44" s="168"/>
-      <c r="G44" s="170"/>
+      <c r="C44" s="179"/>
+      <c r="D44" s="180"/>
+      <c r="E44" s="181"/>
+      <c r="F44" s="179"/>
+      <c r="G44" s="181"/>
       <c r="H44" s="86"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="84"/>
       <c r="B45" s="85"/>
-      <c r="C45" s="168"/>
-      <c r="D45" s="169"/>
-      <c r="E45" s="170"/>
-      <c r="F45" s="168"/>
-      <c r="G45" s="170"/>
+      <c r="C45" s="179"/>
+      <c r="D45" s="180"/>
+      <c r="E45" s="181"/>
+      <c r="F45" s="179"/>
+      <c r="G45" s="181"/>
       <c r="H45" s="86"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="87"/>
       <c r="B46" s="88"/>
-      <c r="C46" s="171"/>
-      <c r="D46" s="172"/>
-      <c r="E46" s="173"/>
-      <c r="F46" s="174"/>
-      <c r="G46" s="175"/>
+      <c r="C46" s="182"/>
+      <c r="D46" s="193"/>
+      <c r="E46" s="183"/>
+      <c r="F46" s="196"/>
+      <c r="G46" s="197"/>
       <c r="H46" s="89"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -5329,15 +5333,15 @@
       <c r="B49" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="179" t="s">
+      <c r="C49" s="184" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="180"/>
-      <c r="E49" s="181"/>
-      <c r="F49" s="182" t="s">
+      <c r="D49" s="194"/>
+      <c r="E49" s="185"/>
+      <c r="F49" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="183"/>
+      <c r="G49" s="198"/>
       <c r="H49" s="49" t="s">
         <v>17</v>
       </c>
@@ -5345,73 +5349,83 @@
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="94"/>
       <c r="B50" s="95"/>
-      <c r="C50" s="176"/>
-      <c r="D50" s="177"/>
-      <c r="E50" s="178"/>
-      <c r="F50" s="176"/>
-      <c r="G50" s="178"/>
+      <c r="C50" s="199"/>
+      <c r="D50" s="200"/>
+      <c r="E50" s="201"/>
+      <c r="F50" s="199"/>
+      <c r="G50" s="201"/>
       <c r="H50" s="96"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="84"/>
       <c r="B51" s="85"/>
-      <c r="C51" s="168"/>
-      <c r="D51" s="169"/>
-      <c r="E51" s="170"/>
-      <c r="F51" s="168"/>
-      <c r="G51" s="170"/>
+      <c r="C51" s="179"/>
+      <c r="D51" s="180"/>
+      <c r="E51" s="181"/>
+      <c r="F51" s="179"/>
+      <c r="G51" s="181"/>
       <c r="H51" s="86"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="84"/>
       <c r="B52" s="85"/>
-      <c r="C52" s="168"/>
-      <c r="D52" s="169"/>
-      <c r="E52" s="170"/>
-      <c r="F52" s="168"/>
-      <c r="G52" s="170"/>
+      <c r="C52" s="179"/>
+      <c r="D52" s="180"/>
+      <c r="E52" s="181"/>
+      <c r="F52" s="179"/>
+      <c r="G52" s="181"/>
       <c r="H52" s="86"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="84"/>
       <c r="B53" s="85"/>
-      <c r="C53" s="168"/>
-      <c r="D53" s="169"/>
-      <c r="E53" s="170"/>
-      <c r="F53" s="168"/>
-      <c r="G53" s="170"/>
+      <c r="C53" s="179"/>
+      <c r="D53" s="180"/>
+      <c r="E53" s="181"/>
+      <c r="F53" s="179"/>
+      <c r="G53" s="181"/>
       <c r="H53" s="86"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="87"/>
       <c r="B54" s="88"/>
-      <c r="C54" s="171"/>
-      <c r="D54" s="172"/>
-      <c r="E54" s="173"/>
-      <c r="F54" s="174"/>
-      <c r="G54" s="175"/>
+      <c r="C54" s="182"/>
+      <c r="D54" s="193"/>
+      <c r="E54" s="183"/>
+      <c r="F54" s="196"/>
+      <c r="G54" s="197"/>
       <c r="H54" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
@@ -5425,34 +5439,24 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5517,10 +5521,10 @@
       <c r="K2" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="208">
+      <c r="L2" s="205">
         <v>45189</v>
       </c>
-      <c r="M2" s="209"/>
+      <c r="M2" s="206"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" customHeight="1">
       <c r="A3" s="118" t="s">
@@ -5542,8 +5546,8 @@
       <c r="K3" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="210"/>
-      <c r="M3" s="209"/>
+      <c r="L3" s="207"/>
+      <c r="M3" s="206"/>
     </row>
     <row r="4" spans="1:13" ht="17.25" customHeight="1">
       <c r="A4" s="115" t="s">
@@ -5563,10 +5567,10 @@
       <c r="K4" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="210" t="s">
+      <c r="L4" s="207" t="s">
         <v>59</v>
       </c>
-      <c r="M4" s="209"/>
+      <c r="M4" s="206"/>
     </row>
     <row r="5" spans="1:13" ht="17.25" customHeight="1">
       <c r="A5" s="119"/>
@@ -5627,14 +5631,14 @@
     <row r="9" spans="1:13" ht="21.75" customHeight="1">
       <c r="A9" s="97"/>
       <c r="F9" s="98"/>
-      <c r="G9" s="211" t="s">
+      <c r="G9" s="208" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="212"/>
-      <c r="I9" s="212"/>
-      <c r="J9" s="212"/>
-      <c r="K9" s="212"/>
-      <c r="L9" s="213"/>
+      <c r="H9" s="209"/>
+      <c r="I9" s="209"/>
+      <c r="J9" s="209"/>
+      <c r="K9" s="209"/>
+      <c r="L9" s="210"/>
       <c r="M9" s="98"/>
     </row>
     <row r="10" spans="1:13" ht="21.75" customHeight="1">
@@ -5656,15 +5660,15 @@
     </row>
     <row r="11" spans="1:13" ht="22.5" customHeight="1">
       <c r="A11" s="97"/>
-      <c r="B11" s="202" t="s">
+      <c r="B11" s="211" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="205" t="s">
+      <c r="C11" s="202" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="206"/>
-      <c r="E11" s="206"/>
-      <c r="F11" s="207"/>
+      <c r="D11" s="203"/>
+      <c r="E11" s="203"/>
+      <c r="F11" s="204"/>
       <c r="G11" s="102" t="s">
         <v>85</v>
       </c>
@@ -5677,13 +5681,13 @@
     </row>
     <row r="12" spans="1:13" ht="22.5" customHeight="1">
       <c r="A12" s="97"/>
-      <c r="B12" s="203"/>
-      <c r="C12" s="205" t="s">
+      <c r="B12" s="212"/>
+      <c r="C12" s="202" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="206"/>
-      <c r="E12" s="206"/>
-      <c r="F12" s="207"/>
+      <c r="D12" s="203"/>
+      <c r="E12" s="203"/>
+      <c r="F12" s="204"/>
       <c r="G12" s="102" t="s">
         <v>87</v>
       </c>
@@ -5696,13 +5700,13 @@
     </row>
     <row r="13" spans="1:13" ht="22.5" customHeight="1">
       <c r="A13" s="97"/>
-      <c r="B13" s="203"/>
-      <c r="C13" s="205" t="s">
+      <c r="B13" s="212"/>
+      <c r="C13" s="202" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="206"/>
-      <c r="E13" s="206"/>
-      <c r="F13" s="207"/>
+      <c r="D13" s="203"/>
+      <c r="E13" s="203"/>
+      <c r="F13" s="204"/>
       <c r="G13" s="102" t="s">
         <v>89</v>
       </c>
@@ -5715,11 +5719,11 @@
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1">
       <c r="A14" s="97"/>
-      <c r="B14" s="203"/>
-      <c r="C14" s="205"/>
-      <c r="D14" s="206"/>
-      <c r="E14" s="206"/>
-      <c r="F14" s="207"/>
+      <c r="B14" s="212"/>
+      <c r="C14" s="202"/>
+      <c r="D14" s="203"/>
+      <c r="E14" s="203"/>
+      <c r="F14" s="204"/>
       <c r="G14" s="102"/>
       <c r="H14" s="102"/>
       <c r="I14" s="102"/>
@@ -5730,11 +5734,11 @@
     </row>
     <row r="15" spans="1:13" ht="22.5" customHeight="1">
       <c r="A15" s="97"/>
-      <c r="B15" s="203"/>
-      <c r="C15" s="205"/>
-      <c r="D15" s="206"/>
-      <c r="E15" s="206"/>
-      <c r="F15" s="207"/>
+      <c r="B15" s="212"/>
+      <c r="C15" s="202"/>
+      <c r="D15" s="203"/>
+      <c r="E15" s="203"/>
+      <c r="F15" s="204"/>
       <c r="G15" s="102"/>
       <c r="H15" s="102"/>
       <c r="I15" s="102"/>
@@ -5745,11 +5749,11 @@
     </row>
     <row r="16" spans="1:13" ht="22.5" customHeight="1">
       <c r="A16" s="97"/>
-      <c r="B16" s="203"/>
-      <c r="C16" s="205"/>
-      <c r="D16" s="206"/>
-      <c r="E16" s="206"/>
-      <c r="F16" s="207"/>
+      <c r="B16" s="212"/>
+      <c r="C16" s="202"/>
+      <c r="D16" s="203"/>
+      <c r="E16" s="203"/>
+      <c r="F16" s="204"/>
       <c r="G16" s="102"/>
       <c r="H16" s="102"/>
       <c r="I16" s="102"/>
@@ -5760,11 +5764,11 @@
     </row>
     <row r="17" spans="1:13" ht="22.5" customHeight="1">
       <c r="A17" s="97"/>
-      <c r="B17" s="203"/>
-      <c r="C17" s="205"/>
-      <c r="D17" s="206"/>
-      <c r="E17" s="206"/>
-      <c r="F17" s="207"/>
+      <c r="B17" s="212"/>
+      <c r="C17" s="202"/>
+      <c r="D17" s="203"/>
+      <c r="E17" s="203"/>
+      <c r="F17" s="204"/>
       <c r="G17" s="102"/>
       <c r="H17" s="102"/>
       <c r="I17" s="102"/>
@@ -5775,11 +5779,11 @@
     </row>
     <row r="18" spans="1:13" ht="22.5" customHeight="1">
       <c r="A18" s="97"/>
-      <c r="B18" s="203"/>
-      <c r="C18" s="205"/>
-      <c r="D18" s="206"/>
-      <c r="E18" s="206"/>
-      <c r="F18" s="207"/>
+      <c r="B18" s="212"/>
+      <c r="C18" s="202"/>
+      <c r="D18" s="203"/>
+      <c r="E18" s="203"/>
+      <c r="F18" s="204"/>
       <c r="G18" s="102"/>
       <c r="H18" s="102"/>
       <c r="I18" s="102"/>
@@ -5790,11 +5794,11 @@
     </row>
     <row r="19" spans="1:13" ht="22.5" customHeight="1">
       <c r="A19" s="97"/>
-      <c r="B19" s="203"/>
-      <c r="C19" s="205"/>
-      <c r="D19" s="206"/>
-      <c r="E19" s="206"/>
-      <c r="F19" s="207"/>
+      <c r="B19" s="212"/>
+      <c r="C19" s="202"/>
+      <c r="D19" s="203"/>
+      <c r="E19" s="203"/>
+      <c r="F19" s="204"/>
       <c r="G19" s="102"/>
       <c r="H19" s="102"/>
       <c r="I19" s="102"/>
@@ -5805,11 +5809,11 @@
     </row>
     <row r="20" spans="1:13" ht="22.5" customHeight="1">
       <c r="A20" s="97"/>
-      <c r="B20" s="203"/>
-      <c r="C20" s="205"/>
-      <c r="D20" s="206"/>
-      <c r="E20" s="206"/>
-      <c r="F20" s="207"/>
+      <c r="B20" s="212"/>
+      <c r="C20" s="202"/>
+      <c r="D20" s="203"/>
+      <c r="E20" s="203"/>
+      <c r="F20" s="204"/>
       <c r="G20" s="102"/>
       <c r="H20" s="102"/>
       <c r="I20" s="102"/>
@@ -5820,11 +5824,11 @@
     </row>
     <row r="21" spans="1:13" ht="22.5" customHeight="1">
       <c r="A21" s="97"/>
-      <c r="B21" s="203"/>
-      <c r="C21" s="205"/>
-      <c r="D21" s="206"/>
-      <c r="E21" s="206"/>
-      <c r="F21" s="207"/>
+      <c r="B21" s="212"/>
+      <c r="C21" s="202"/>
+      <c r="D21" s="203"/>
+      <c r="E21" s="203"/>
+      <c r="F21" s="204"/>
       <c r="G21" s="102"/>
       <c r="H21" s="102"/>
       <c r="I21" s="102"/>
@@ -5835,11 +5839,11 @@
     </row>
     <row r="22" spans="1:13" ht="22.5" customHeight="1">
       <c r="A22" s="97"/>
-      <c r="B22" s="203"/>
-      <c r="C22" s="205"/>
-      <c r="D22" s="206"/>
-      <c r="E22" s="206"/>
-      <c r="F22" s="207"/>
+      <c r="B22" s="212"/>
+      <c r="C22" s="202"/>
+      <c r="D22" s="203"/>
+      <c r="E22" s="203"/>
+      <c r="F22" s="204"/>
       <c r="G22" s="102"/>
       <c r="H22" s="102"/>
       <c r="I22" s="102"/>
@@ -5850,11 +5854,11 @@
     </row>
     <row r="23" spans="1:13" ht="22.5" customHeight="1">
       <c r="A23" s="97"/>
-      <c r="B23" s="203"/>
-      <c r="C23" s="205"/>
-      <c r="D23" s="206"/>
-      <c r="E23" s="206"/>
-      <c r="F23" s="207"/>
+      <c r="B23" s="212"/>
+      <c r="C23" s="202"/>
+      <c r="D23" s="203"/>
+      <c r="E23" s="203"/>
+      <c r="F23" s="204"/>
       <c r="G23" s="102"/>
       <c r="H23" s="102"/>
       <c r="I23" s="102"/>
@@ -5865,11 +5869,11 @@
     </row>
     <row r="24" spans="1:13" ht="22.5" customHeight="1">
       <c r="A24" s="97"/>
-      <c r="B24" s="203"/>
-      <c r="C24" s="205"/>
-      <c r="D24" s="206"/>
-      <c r="E24" s="206"/>
-      <c r="F24" s="207"/>
+      <c r="B24" s="212"/>
+      <c r="C24" s="202"/>
+      <c r="D24" s="203"/>
+      <c r="E24" s="203"/>
+      <c r="F24" s="204"/>
       <c r="G24" s="102"/>
       <c r="H24" s="102"/>
       <c r="I24" s="102"/>
@@ -5880,11 +5884,11 @@
     </row>
     <row r="25" spans="1:13" ht="22.5" customHeight="1">
       <c r="A25" s="97"/>
-      <c r="B25" s="203"/>
-      <c r="C25" s="205"/>
-      <c r="D25" s="206"/>
-      <c r="E25" s="206"/>
-      <c r="F25" s="207"/>
+      <c r="B25" s="212"/>
+      <c r="C25" s="202"/>
+      <c r="D25" s="203"/>
+      <c r="E25" s="203"/>
+      <c r="F25" s="204"/>
       <c r="G25" s="102"/>
       <c r="H25" s="102"/>
       <c r="I25" s="102"/>
@@ -5895,11 +5899,11 @@
     </row>
     <row r="26" spans="1:13" ht="22.5" customHeight="1">
       <c r="A26" s="97"/>
-      <c r="B26" s="203"/>
-      <c r="C26" s="205"/>
-      <c r="D26" s="206"/>
-      <c r="E26" s="206"/>
-      <c r="F26" s="207"/>
+      <c r="B26" s="212"/>
+      <c r="C26" s="202"/>
+      <c r="D26" s="203"/>
+      <c r="E26" s="203"/>
+      <c r="F26" s="204"/>
       <c r="G26" s="102"/>
       <c r="H26" s="102"/>
       <c r="I26" s="102"/>
@@ -5910,11 +5914,11 @@
     </row>
     <row r="27" spans="1:13" ht="22.5" customHeight="1">
       <c r="A27" s="97"/>
-      <c r="B27" s="203"/>
-      <c r="C27" s="205"/>
-      <c r="D27" s="206"/>
-      <c r="E27" s="206"/>
-      <c r="F27" s="207"/>
+      <c r="B27" s="212"/>
+      <c r="C27" s="202"/>
+      <c r="D27" s="203"/>
+      <c r="E27" s="203"/>
+      <c r="F27" s="204"/>
       <c r="G27" s="102"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
@@ -5925,11 +5929,11 @@
     </row>
     <row r="28" spans="1:13" ht="22.5" customHeight="1">
       <c r="A28" s="97"/>
-      <c r="B28" s="203"/>
-      <c r="C28" s="205"/>
-      <c r="D28" s="206"/>
-      <c r="E28" s="206"/>
-      <c r="F28" s="207"/>
+      <c r="B28" s="212"/>
+      <c r="C28" s="202"/>
+      <c r="D28" s="203"/>
+      <c r="E28" s="203"/>
+      <c r="F28" s="204"/>
       <c r="G28" s="102"/>
       <c r="H28" s="102"/>
       <c r="I28" s="102"/>
@@ -5940,11 +5944,11 @@
     </row>
     <row r="29" spans="1:13" ht="22.5" customHeight="1">
       <c r="A29" s="97"/>
-      <c r="B29" s="203"/>
-      <c r="C29" s="205"/>
-      <c r="D29" s="206"/>
-      <c r="E29" s="206"/>
-      <c r="F29" s="207"/>
+      <c r="B29" s="212"/>
+      <c r="C29" s="202"/>
+      <c r="D29" s="203"/>
+      <c r="E29" s="203"/>
+      <c r="F29" s="204"/>
       <c r="G29" s="102"/>
       <c r="H29" s="102"/>
       <c r="I29" s="102"/>
@@ -5955,11 +5959,11 @@
     </row>
     <row r="30" spans="1:13" ht="22.5" customHeight="1">
       <c r="A30" s="97"/>
-      <c r="B30" s="203"/>
-      <c r="C30" s="205"/>
-      <c r="D30" s="206"/>
-      <c r="E30" s="206"/>
-      <c r="F30" s="207"/>
+      <c r="B30" s="212"/>
+      <c r="C30" s="202"/>
+      <c r="D30" s="203"/>
+      <c r="E30" s="203"/>
+      <c r="F30" s="204"/>
       <c r="G30" s="102"/>
       <c r="H30" s="102"/>
       <c r="I30" s="102"/>
@@ -5970,11 +5974,11 @@
     </row>
     <row r="31" spans="1:13" ht="22.5" customHeight="1">
       <c r="A31" s="97"/>
-      <c r="B31" s="203"/>
-      <c r="C31" s="205"/>
-      <c r="D31" s="206"/>
-      <c r="E31" s="206"/>
-      <c r="F31" s="207"/>
+      <c r="B31" s="212"/>
+      <c r="C31" s="202"/>
+      <c r="D31" s="203"/>
+      <c r="E31" s="203"/>
+      <c r="F31" s="204"/>
       <c r="G31" s="102"/>
       <c r="H31" s="102"/>
       <c r="I31" s="102"/>
@@ -5985,11 +5989,11 @@
     </row>
     <row r="32" spans="1:13" ht="23.25" customHeight="1">
       <c r="A32" s="97"/>
-      <c r="B32" s="203"/>
-      <c r="C32" s="205"/>
-      <c r="D32" s="206"/>
-      <c r="E32" s="206"/>
-      <c r="F32" s="207"/>
+      <c r="B32" s="212"/>
+      <c r="C32" s="202"/>
+      <c r="D32" s="203"/>
+      <c r="E32" s="203"/>
+      <c r="F32" s="204"/>
       <c r="G32" s="102"/>
       <c r="H32" s="102"/>
       <c r="I32" s="102"/>
@@ -6000,11 +6004,11 @@
     </row>
     <row r="33" spans="1:13" ht="23.25" customHeight="1">
       <c r="A33" s="97"/>
-      <c r="B33" s="203"/>
-      <c r="C33" s="205"/>
-      <c r="D33" s="206"/>
-      <c r="E33" s="206"/>
-      <c r="F33" s="207"/>
+      <c r="B33" s="212"/>
+      <c r="C33" s="202"/>
+      <c r="D33" s="203"/>
+      <c r="E33" s="203"/>
+      <c r="F33" s="204"/>
       <c r="G33" s="102"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
@@ -6015,11 +6019,11 @@
     </row>
     <row r="34" spans="1:13" ht="23.25" customHeight="1">
       <c r="A34" s="97"/>
-      <c r="B34" s="204"/>
-      <c r="C34" s="205"/>
-      <c r="D34" s="206"/>
-      <c r="E34" s="206"/>
-      <c r="F34" s="207"/>
+      <c r="B34" s="213"/>
+      <c r="C34" s="202"/>
+      <c r="D34" s="203"/>
+      <c r="E34" s="203"/>
+      <c r="F34" s="204"/>
       <c r="G34" s="102"/>
       <c r="H34" s="102"/>
       <c r="I34" s="102"/>
@@ -6049,19 +6053,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="C15:F15"/>
     <mergeCell ref="B11:B34"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="C12:F12"/>
@@ -6078,6 +6069,19 @@
     <mergeCell ref="C32:F32"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="C17:F17"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6086,21 +6090,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D7C9809096204D448E7E27AA876564EA" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="d18fc409809536b8b7818c3506e9437f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="957a1b1a-32e6-4e86-807e-1894b93e11c2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2abd3c77384fed28cbfa08c3c7921415" ns2:_="">
     <xsd:import namespace="957a1b1a-32e6-4e86-807e-1894b93e11c2"/>
@@ -6232,24 +6221,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FD7918C-4008-4E53-BD69-06094197BAA9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72DCFA76-BA47-46F7-87FB-B7214F0E338A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E328507C-4764-40B1-B800-B2951A2D6FAA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6265,4 +6252,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72DCFA76-BA47-46F7-87FB-B7214F0E338A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FD7918C-4008-4E53-BD69-06094197BAA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>